--- a/WebRoot/oem/heichao/locale/locale-en.xlsx
+++ b/WebRoot/oem/heichao/locale/locale-en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="2186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="2190">
   <si>
     <t>myself</t>
   </si>
@@ -8407,6 +8407,22 @@
   </si>
   <si>
     <t>CBM Production Intelligent Monitoring System V9.3 mainly focuses on oil well intelligent analysis on the basis of collection and control. The module includes real-time monitoring, historical query, production report, fault query, log query, computing maintenance, driver configuration, rights management, device management, and system configuration. The system applies big data analysis method to carry out statistical analysis of key production indicators, find abnormal production Wells in time, tap production potential Wells, and improve the control ability of target blocks and individual Wells.</t>
+  </si>
+  <si>
+    <t>userNameEmpty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The username cannot be empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwordEmpty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The password cannot be empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8486,7 +8502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -8505,6 +8521,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8806,10 +8826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8818,7 +8838,7 @@
     <col min="3" max="3" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -8829,7 +8849,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8840,7 +8860,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8851,8 +8871,8 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -8862,323 +8882,324 @@
         <v>971</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="14" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>1960</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>1961</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>1801</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>1621</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1940</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>1939</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>2038</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>1986</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>2018</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>2019</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -9186,10 +9207,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>982</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -9197,10 +9218,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>119</v>
+        <v>2018</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>983</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -9208,10 +9229,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -9219,10 +9240,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>367</v>
+        <v>119</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -9230,10 +9251,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>368</v>
+        <v>141</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -9241,10 +9262,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>130</v>
+        <v>367</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -9252,10 +9273,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -9263,10 +9284,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>298</v>
+        <v>130</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -9274,10 +9295,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>131</v>
+        <v>299</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -9285,10 +9306,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>137</v>
+        <v>298</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>140</v>
+        <v>989</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -9296,10 +9317,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -9307,10 +9328,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>992</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -9318,10 +9339,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -9329,10 +9350,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -9340,10 +9361,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1964</v>
+        <v>132</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1965</v>
+        <v>993</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -9351,10 +9372,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>917</v>
+        <v>142</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -9362,10 +9383,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>918</v>
+        <v>1964</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>996</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -9373,10 +9394,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>133</v>
+        <v>917</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -9384,10 +9405,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>134</v>
+        <v>918</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -9395,10 +9416,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -9406,10 +9427,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -9417,10 +9438,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2052</v>
+        <v>135</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>2053</v>
+        <v>999</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -9428,10 +9449,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>311</v>
+        <v>31</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -9439,10 +9460,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>4</v>
+        <v>2052</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1898</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -9450,10 +9471,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>5</v>
+        <v>311</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -9461,10 +9482,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -9472,10 +9493,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -9483,10 +9504,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1902</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -9494,10 +9515,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -9505,10 +9526,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>231</v>
+        <v>312</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>234</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -9516,10 +9537,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>245</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -9527,10 +9548,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1001</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -9538,10 +9559,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -9549,10 +9570,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1966</v>
+        <v>233</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>250</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -9560,10 +9581,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1002</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -9571,10 +9592,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>237</v>
+        <v>1966</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1003</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -9582,10 +9603,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>239</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -9593,10 +9614,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -9604,10 +9625,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1713</v>
+        <v>238</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1712</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -9615,10 +9636,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -9626,10 +9647,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>241</v>
+        <v>1713</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1006</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -9637,10 +9658,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -9648,10 +9669,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -9659,10 +9680,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -9670,10 +9691,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>216</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -9681,10 +9702,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>246</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -9692,10 +9713,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -9703,10 +9724,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -9714,10 +9735,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -9725,10 +9746,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1010</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -9736,10 +9757,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1011</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -9747,10 +9768,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -9758,10 +9779,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>921</v>
+        <v>301</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>940</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -9769,10 +9790,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>922</v>
+        <v>302</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>939</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -9780,10 +9801,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -9791,10 +9812,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -9802,10 +9823,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -9813,10 +9834,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -9824,10 +9845,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -9835,10 +9856,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -9846,10 +9867,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -9857,10 +9878,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -9868,10 +9889,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1997</v>
+        <v>929</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1996</v>
+        <v>932</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -9879,10 +9900,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>2000</v>
+        <v>930</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1998</v>
+        <v>933</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -9890,21 +9911,33 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="12">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="12">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>2025</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>2024</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
@@ -9940,6 +9973,16 @@
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10168,7 +10211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/WebRoot/oem/heichao/locale/locale-en.xlsx
+++ b/WebRoot/oem/heichao/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A6F37D-8BA6-4619-8E17-3D3F8DD5092D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A60EEB8-9AD2-4CEC-923A-8472120729F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="3598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="3597">
   <si>
     <t>myself</t>
   </si>
@@ -13258,9 +13258,6 @@
   <si>
     <t>生产井段</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Production well sections</t>
   </si>
   <si>
     <t>Production well sections</t>
@@ -13431,7 +13428,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13490,12 +13487,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -13575,7 +13566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -13614,7 +13605,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -15819,7 +15809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D330"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
@@ -20462,8 +20452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
   <dimension ref="A1:D638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A619" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D638" sqref="D638"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20473,7 +20463,7 @@
     <col min="4" max="4" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="14" t="s">
         <v>1746</v>
       </c>
@@ -20483,8 +20473,8 @@
       <c r="C1" s="14" t="s">
         <v>1748</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>3555</v>
+      <c r="D1" s="14" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -26750,13 +26740,13 @@
         <v>448</v>
       </c>
       <c r="B449" s="5" t="s">
+        <v>3591</v>
+      </c>
+      <c r="C449" s="25" t="s">
         <v>3592</v>
       </c>
-      <c r="C449" s="26" t="s">
+      <c r="D449" s="25" t="s">
         <v>3593</v>
-      </c>
-      <c r="D449" s="26" t="s">
-        <v>3594</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -29129,13 +29119,13 @@
       <c r="A619" s="15">
         <v>618</v>
       </c>
-      <c r="B619" s="25" t="s">
-        <v>3573</v>
+      <c r="B619" s="24" t="s">
+        <v>3572</v>
       </c>
       <c r="C619" s="18" t="s">
         <v>3536</v>
       </c>
-      <c r="D619" s="25" t="s">
+      <c r="D619" s="24" t="s">
         <v>3537</v>
       </c>
     </row>
@@ -29144,7 +29134,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="C620" s="9" t="s">
         <v>3538</v>
@@ -29228,13 +29218,13 @@
         <v>625</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="C626" s="1" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D626" s="1" t="s">
         <v>3571</v>
-      </c>
-      <c r="D626" s="1" t="s">
-        <v>3572</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -29242,7 +29232,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>3552</v>
@@ -29256,13 +29246,13 @@
         <v>627</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>3554</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -29270,13 +29260,13 @@
         <v>628</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="C629" s="1" t="s">
+        <v>3556</v>
+      </c>
+      <c r="D629" s="1" t="s">
         <v>3557</v>
-      </c>
-      <c r="D629" s="1" t="s">
-        <v>3558</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -29284,13 +29274,13 @@
         <v>629</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="C630" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="D630" s="1" t="s">
         <v>3559</v>
-      </c>
-      <c r="D630" s="1" t="s">
-        <v>3560</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -29298,13 +29288,13 @@
         <v>630</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="C631" s="18" t="s">
+        <v>3560</v>
+      </c>
+      <c r="D631" s="1" t="s">
         <v>3561</v>
-      </c>
-      <c r="D631" s="1" t="s">
-        <v>3562</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -29312,13 +29302,13 @@
         <v>631</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="C632" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="D632" s="1" t="s">
         <v>3563</v>
-      </c>
-      <c r="D632" s="1" t="s">
-        <v>3564</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -29326,13 +29316,13 @@
         <v>632</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="C633" s="1" t="s">
+        <v>3564</v>
+      </c>
+      <c r="D633" s="1" t="s">
         <v>3565</v>
-      </c>
-      <c r="D633" s="1" t="s">
-        <v>3566</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -29340,13 +29330,13 @@
         <v>633</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="C634" s="1" t="s">
+        <v>3566</v>
+      </c>
+      <c r="D634" s="1" t="s">
         <v>3567</v>
-      </c>
-      <c r="D634" s="1" t="s">
-        <v>3568</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -29354,13 +29344,13 @@
         <v>634</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="C635" s="1" t="s">
+        <v>3568</v>
+      </c>
+      <c r="D635" s="1" t="s">
         <v>3569</v>
-      </c>
-      <c r="D635" s="1" t="s">
-        <v>3570</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -29368,10 +29358,10 @@
         <v>635</v>
       </c>
       <c r="B636" s="5" t="s">
+        <v>3586</v>
+      </c>
+      <c r="C636" s="18" t="s">
         <v>3587</v>
-      </c>
-      <c r="C636" s="18" t="s">
-        <v>3588</v>
       </c>
       <c r="D636" s="9" t="s">
         <v>480</v>
@@ -29382,13 +29372,13 @@
         <v>636</v>
       </c>
       <c r="B637" s="5" t="s">
+        <v>3588</v>
+      </c>
+      <c r="C637" s="18" t="s">
         <v>3589</v>
       </c>
-      <c r="C637" s="18" t="s">
+      <c r="D637" s="9" t="s">
         <v>3590</v>
-      </c>
-      <c r="D637" s="9" t="s">
-        <v>3591</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -29396,13 +29386,13 @@
         <v>637</v>
       </c>
       <c r="B638" s="5" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C638" s="18" t="s">
         <v>3595</v>
       </c>
-      <c r="C638" s="18" t="s">
+      <c r="D638" s="9" t="s">
         <v>3596</v>
-      </c>
-      <c r="D638" s="9" t="s">
-        <v>3597</v>
       </c>
     </row>
   </sheetData>
@@ -30282,13 +30272,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>1517</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -30302,7 +30292,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>1516</v>
@@ -30322,13 +30312,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>1515</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -30342,10 +30332,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>3227</v>
@@ -30362,7 +30352,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>1698</v>
@@ -30389,7 +30379,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/WebRoot/oem/heichao/locale/locale-en.xlsx
+++ b/WebRoot/oem/heichao/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0572ABE-F01D-4853-BEF7-66F7469DAAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E2F682-4B22-453F-9EDC-09939ED6A242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3975" uniqueCount="3758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4005" uniqueCount="3778">
   <si>
     <t>myself</t>
   </si>
@@ -14164,6 +14164,83 @@
   </si>
   <si>
     <t>Dynamometer construction data-ground efficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extended fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extendedField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOUROPERATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subtraction</t>
+  </si>
+  <si>
+    <t>multiplication</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>addition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fourOperation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDITIONALCONDITIONS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非负</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>additionalConditions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Additional conditions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -16439,10 +16516,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>3752</v>
+        <v>3772</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3753</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -16453,10 +16530,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>3754</v>
+        <v>3774</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3755</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -16467,10 +16544,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>3756</v>
+        <v>3776</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>3757</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16630,8 +16707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D370"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21832,10 +21909,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D652"/>
+  <dimension ref="A1:D655"/>
   <sheetViews>
-    <sheetView topLeftCell="A566" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D585" sqref="D585"/>
+    <sheetView topLeftCell="A643" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C662" sqref="C662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -30973,6 +31050,48 @@
         <v>3454</v>
       </c>
     </row>
+    <row r="653" spans="1:4">
+      <c r="A653" s="15">
+        <v>652</v>
+      </c>
+      <c r="B653" s="5" t="s">
+        <v>3754</v>
+      </c>
+      <c r="C653" s="18" t="s">
+        <v>3752</v>
+      </c>
+      <c r="D653" s="9" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4">
+      <c r="A654" s="15">
+        <v>653</v>
+      </c>
+      <c r="B654" s="5" t="s">
+        <v>3765</v>
+      </c>
+      <c r="C654" s="18" t="s">
+        <v>3764</v>
+      </c>
+      <c r="D654" s="9" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4">
+      <c r="A655" s="15">
+        <v>654</v>
+      </c>
+      <c r="B655" s="5" t="s">
+        <v>3769</v>
+      </c>
+      <c r="C655" s="18" t="s">
+        <v>3770</v>
+      </c>
+      <c r="D655" s="9" t="s">
+        <v>3771</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30982,10 +31101,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31950,17 +32069,17 @@
       <c r="A48" s="15">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>3485</v>
+      <c r="B48" s="4" t="s">
+        <v>3440</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>3486</v>
+        <v>3752</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>3488</v>
+        <v>3753</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -31974,13 +32093,13 @@
         <v>3485</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>3190</v>
+        <v>3488</v>
       </c>
       <c r="E49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -31994,17 +32113,157 @@
         <v>3485</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>1300</v>
+        <v>3487</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>826</v>
+        <v>3190</v>
       </c>
       <c r="E50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="15">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3485</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="15">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>3755</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>3763</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="15">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3755</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>3757</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>3760</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="15">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3755</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>3761</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="15">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3755</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>3759</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>3762</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="15">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>3766</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>2712</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="15">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>3766</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>3767</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>3768</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/heichao/locale/locale-en.xlsx
+++ b/WebRoot/oem/heichao/locale/locale-en.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17FBC6D-6937-49E9-BADC-438B3EB2BE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9B1B2C-95A6-4FE7-B8AA-25E96CA84863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4008" uniqueCount="3781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4011" uniqueCount="3784">
   <si>
     <t>myself</t>
   </si>
@@ -13107,17 +13107,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基础字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>驱动配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Base fields</t>
-  </si>
-  <si>
     <t>字段来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14277,6 +14270,26 @@
   </si>
   <si>
     <t>doubleClickCellTip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>configureField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configure field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed fields</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -16227,13 +16240,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>3498</v>
+        <v>3496</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>3504</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -16241,13 +16254,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -16255,13 +16268,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
     </row>
   </sheetData>
@@ -16528,10 +16541,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>3770</v>
+        <v>3768</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3771</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -16542,10 +16555,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>3772</v>
+        <v>3770</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3773</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -16556,10 +16569,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>3774</v>
+        <v>3772</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>3775</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17675,13 +17688,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>3666</v>
+        <v>3664</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>3661</v>
+        <v>3659</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>3671</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -17689,13 +17702,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>3667</v>
+        <v>3665</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>3662</v>
+        <v>3660</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>3672</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -17703,13 +17716,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>3668</v>
+        <v>3666</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>3663</v>
+        <v>3661</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -17717,13 +17730,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3669</v>
+        <v>3667</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>3664</v>
+        <v>3662</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>3674</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -17731,13 +17744,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3670</v>
+        <v>3668</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>3665</v>
+        <v>3663</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>3675</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -19627,7 +19640,7 @@
         <v>1280</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>3510</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -19641,7 +19654,7 @@
         <v>1281</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -19655,7 +19668,7 @@
         <v>1282</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -19669,7 +19682,7 @@
         <v>1283</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>3513</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -19683,7 +19696,7 @@
         <v>1284</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -19697,7 +19710,7 @@
         <v>1285</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>3515</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -19711,7 +19724,7 @@
         <v>1286</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>3516</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -19725,7 +19738,7 @@
         <v>1287</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -19753,7 +19766,7 @@
         <v>1288</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>3518</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -19767,7 +19780,7 @@
         <v>1289</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>3519</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -19865,7 +19878,7 @@
         <v>1844</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -19879,7 +19892,7 @@
         <v>1845</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>3521</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -19907,7 +19920,7 @@
         <v>1847</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>3522</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -19915,13 +19928,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>3528</v>
+        <v>3526</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>3526</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -19929,13 +19942,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>3529</v>
+        <v>3527</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>3565</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -19943,13 +19956,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>3527</v>
+        <v>3525</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>3621</v>
+        <v>3619</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -19957,13 +19970,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>3530</v>
+        <v>3528</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>3621</v>
+        <v>3619</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -19971,13 +19984,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>3525</v>
+        <v>3523</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>3566</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1">
@@ -19985,13 +19998,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>3532</v>
+        <v>3530</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -19999,13 +20012,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>3534</v>
+        <v>3532</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>3569</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -20013,13 +20026,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>3570</v>
+        <v>3568</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>3571</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -20027,13 +20040,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>3535</v>
+        <v>3533</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>3572</v>
+        <v>3570</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>3573</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -20041,13 +20054,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>3536</v>
+        <v>3534</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>3574</v>
+        <v>3572</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>3575</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -20055,13 +20068,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>3537</v>
+        <v>3535</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>3576</v>
+        <v>3574</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>3577</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -20069,13 +20082,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>3538</v>
+        <v>3536</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>3578</v>
+        <v>3576</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>3579</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -20083,13 +20096,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>3539</v>
+        <v>3537</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>3580</v>
+        <v>3578</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>3581</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -20097,13 +20110,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>3540</v>
+        <v>3538</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>3583</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -20111,13 +20124,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>3541</v>
+        <v>3539</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>3564</v>
+        <v>3562</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>3584</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -20125,13 +20138,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>3542</v>
+        <v>3540</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -20139,13 +20152,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>3543</v>
+        <v>3541</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>3587</v>
+        <v>3585</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -20153,13 +20166,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>3544</v>
+        <v>3542</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>3545</v>
+        <v>3543</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -20167,13 +20180,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>3590</v>
+        <v>3588</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -20181,13 +20194,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>3593</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -20195,13 +20208,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>3548</v>
+        <v>3546</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>3594</v>
+        <v>3592</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>3595</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -20209,13 +20222,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>3549</v>
+        <v>3547</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>3596</v>
+        <v>3594</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>3597</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -20223,13 +20236,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3550</v>
+        <v>3548</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>3598</v>
+        <v>3596</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -20237,13 +20250,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3551</v>
+        <v>3549</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>3600</v>
+        <v>3598</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>3601</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -20251,13 +20264,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3552</v>
+        <v>3550</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>3602</v>
+        <v>3600</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>3603</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -20265,13 +20278,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>3553</v>
+        <v>3551</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>3605</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -20279,13 +20292,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3554</v>
+        <v>3552</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>3607</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -20293,13 +20306,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>3555</v>
+        <v>3553</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -20307,13 +20320,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>3556</v>
+        <v>3554</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -20321,13 +20334,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>3612</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -20335,13 +20348,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>3613</v>
+        <v>3611</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -20349,13 +20362,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -20363,13 +20376,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>3618</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -20377,13 +20390,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>3619</v>
+        <v>3617</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>3620</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -20397,7 +20410,7 @@
         <v>2484</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>3651</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -20425,7 +20438,7 @@
         <v>2485</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>3652</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -20439,7 +20452,7 @@
         <v>2486</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>3653</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -20509,7 +20522,7 @@
         <v>2487</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>3654</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -20537,7 +20550,7 @@
         <v>2489</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>3655</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -20551,7 +20564,7 @@
         <v>2490</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>3656</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -20565,7 +20578,7 @@
         <v>2491</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>3657</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -20579,7 +20592,7 @@
         <v>2492</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>3658</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -20621,7 +20634,7 @@
         <v>2493</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>3659</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -20635,7 +20648,7 @@
         <v>2494</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>3660</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -20663,7 +20676,7 @@
         <v>2495</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>3676</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -20677,7 +20690,7 @@
         <v>2496</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>3677</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -20691,7 +20704,7 @@
         <v>2497</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>3678</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -20705,7 +20718,7 @@
         <v>2561</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>3679</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -20719,7 +20732,7 @@
         <v>2562</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>3680</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -20733,7 +20746,7 @@
         <v>2563</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>3681</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -20747,7 +20760,7 @@
         <v>2564</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -20761,7 +20774,7 @@
         <v>2565</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>3683</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -20775,7 +20788,7 @@
         <v>2566</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>3684</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -20789,7 +20802,7 @@
         <v>2567</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>3685</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -20803,7 +20816,7 @@
         <v>2568</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>3686</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -20817,7 +20830,7 @@
         <v>2569</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>3687</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -20831,7 +20844,7 @@
         <v>2570</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>3688</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -20845,7 +20858,7 @@
         <v>2571</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>3689</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -20859,7 +20872,7 @@
         <v>2572</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>3690</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -20873,7 +20886,7 @@
         <v>2573</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>3691</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -20887,7 +20900,7 @@
         <v>2574</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>3692</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -20901,7 +20914,7 @@
         <v>2575</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>3693</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -20915,7 +20928,7 @@
         <v>2576</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>3694</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -20929,7 +20942,7 @@
         <v>2577</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>3695</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -20943,7 +20956,7 @@
         <v>2578</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>3696</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -20957,7 +20970,7 @@
         <v>2579</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>3697</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -20971,7 +20984,7 @@
         <v>2580</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>3698</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -20999,7 +21012,7 @@
         <v>2498</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>3699</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -21013,7 +21026,7 @@
         <v>2499</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>3700</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -21027,7 +21040,7 @@
         <v>2500</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>3701</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -21041,7 +21054,7 @@
         <v>2501</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>3702</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -21055,7 +21068,7 @@
         <v>2502</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>3703</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -21069,7 +21082,7 @@
         <v>2503</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>3704</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -21083,7 +21096,7 @@
         <v>2504</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -21097,7 +21110,7 @@
         <v>2505</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>3706</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -21111,7 +21124,7 @@
         <v>2506</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>3707</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -21125,7 +21138,7 @@
         <v>2507</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>3708</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -21139,7 +21152,7 @@
         <v>2508</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>3709</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -21153,7 +21166,7 @@
         <v>2509</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>3710</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -21265,7 +21278,7 @@
         <v>2517</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>3711</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -21377,7 +21390,7 @@
         <v>2525</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>3712</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -21391,7 +21404,7 @@
         <v>2526</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>3713</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -21405,7 +21418,7 @@
         <v>2527</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>3714</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -21419,7 +21432,7 @@
         <v>2528</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>3715</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -21433,7 +21446,7 @@
         <v>2529</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>3716</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -21444,10 +21457,10 @@
         <v>2102</v>
       </c>
       <c r="C337" s="22" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>3729</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -21458,10 +21471,10 @@
         <v>2103</v>
       </c>
       <c r="C338" s="22" t="s">
-        <v>3730</v>
+        <v>3728</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>3731</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -21472,10 +21485,10 @@
         <v>2104</v>
       </c>
       <c r="C339" s="22" t="s">
-        <v>3748</v>
+        <v>3746</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>3749</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -21486,10 +21499,10 @@
         <v>2105</v>
       </c>
       <c r="C340" s="22" t="s">
-        <v>3718</v>
+        <v>3716</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>3732</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -21500,10 +21513,10 @@
         <v>2116</v>
       </c>
       <c r="C341" s="22" t="s">
-        <v>3719</v>
+        <v>3717</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>3733</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -21514,10 +21527,10 @@
         <v>2106</v>
       </c>
       <c r="C342" s="22" t="s">
-        <v>3724</v>
+        <v>3722</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>3734</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -21528,10 +21541,10 @@
         <v>2107</v>
       </c>
       <c r="C343" s="22" t="s">
-        <v>3725</v>
+        <v>3723</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>3735</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -21542,10 +21555,10 @@
         <v>2108</v>
       </c>
       <c r="C344" s="22" t="s">
-        <v>3726</v>
+        <v>3724</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -21556,10 +21569,10 @@
         <v>2109</v>
       </c>
       <c r="C345" s="22" t="s">
-        <v>3727</v>
+        <v>3725</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>3737</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -21570,10 +21583,10 @@
         <v>2110</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>3728</v>
+        <v>3726</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>3738</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -21584,10 +21597,10 @@
         <v>2122</v>
       </c>
       <c r="C347" s="22" t="s">
-        <v>3720</v>
+        <v>3718</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>3739</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -21598,10 +21611,10 @@
         <v>2123</v>
       </c>
       <c r="C348" s="22" t="s">
-        <v>3721</v>
+        <v>3719</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>3740</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -21612,10 +21625,10 @@
         <v>2111</v>
       </c>
       <c r="C349" s="22" t="s">
-        <v>3722</v>
+        <v>3720</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>3741</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -21626,10 +21639,10 @@
         <v>2169</v>
       </c>
       <c r="C350" s="22" t="s">
-        <v>3723</v>
+        <v>3721</v>
       </c>
       <c r="D350" s="22" t="s">
-        <v>3744</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -21643,7 +21656,7 @@
         <v>2179</v>
       </c>
       <c r="D351" s="22" t="s">
-        <v>3508</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -21657,7 +21670,7 @@
         <v>2181</v>
       </c>
       <c r="D352" s="22" t="s">
-        <v>3509</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -21839,7 +21852,7 @@
         <v>2173</v>
       </c>
       <c r="D365" s="22" t="s">
-        <v>3745</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -21853,7 +21866,7 @@
         <v>2175</v>
       </c>
       <c r="D366" s="22" t="s">
-        <v>3746</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -21867,7 +21880,7 @@
         <v>2177</v>
       </c>
       <c r="D367" s="22" t="s">
-        <v>3747</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -21895,7 +21908,7 @@
         <v>2186</v>
       </c>
       <c r="D369" s="9" t="s">
-        <v>3742</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -21909,7 +21922,7 @@
         <v>2188</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>3743</v>
+        <v>3741</v>
       </c>
     </row>
   </sheetData>
@@ -21921,10 +21934,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D656"/>
+  <dimension ref="A1:D662"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A639" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B661" sqref="B661"/>
+    <sheetView topLeftCell="A639" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C665" sqref="C665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22656,10 +22669,10 @@
         <v>1041</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>3776</v>
+        <v>3774</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>3776</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -22740,7 +22753,7 @@
         <v>1063</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>3777</v>
+        <v>3775</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>2626</v>
@@ -23913,7 +23926,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>3235</v>
@@ -23927,7 +23940,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>3237</v>
@@ -23941,7 +23954,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>3492</v>
+        <v>3490</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>736</v>
@@ -23955,10 +23968,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>3288</v>
@@ -25977,7 +25990,7 @@
         <v>1472</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>3507</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -27959,13 +27972,13 @@
         <v>430</v>
       </c>
       <c r="B431" s="5" t="s">
+        <v>3493</v>
+      </c>
+      <c r="C431" s="9" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D431" s="1" t="s">
         <v>3495</v>
-      </c>
-      <c r="C431" s="9" t="s">
-        <v>3496</v>
-      </c>
-      <c r="D431" s="1" t="s">
-        <v>3497</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -29779,13 +29792,13 @@
         <v>560</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
       <c r="C561" s="18" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
       <c r="D561" s="9" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -31067,13 +31080,13 @@
         <v>652</v>
       </c>
       <c r="B653" s="5" t="s">
-        <v>3752</v>
+        <v>3750</v>
       </c>
       <c r="C653" s="18" t="s">
-        <v>3750</v>
+        <v>3748</v>
       </c>
       <c r="D653" s="9" t="s">
-        <v>3751</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -31081,10 +31094,10 @@
         <v>653</v>
       </c>
       <c r="B654" s="5" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="C654" s="18" t="s">
-        <v>3762</v>
+        <v>3760</v>
       </c>
       <c r="D654" s="9" t="s">
         <v>851</v>
@@ -31095,13 +31108,13 @@
         <v>654</v>
       </c>
       <c r="B655" s="5" t="s">
+        <v>3765</v>
+      </c>
+      <c r="C655" s="18" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D655" s="9" t="s">
         <v>3767</v>
-      </c>
-      <c r="C655" s="18" t="s">
-        <v>3768</v>
-      </c>
-      <c r="D655" s="9" t="s">
-        <v>3769</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -31109,14 +31122,58 @@
         <v>655</v>
       </c>
       <c r="B656" s="5" t="s">
+        <v>3778</v>
+      </c>
+      <c r="C656" s="18" t="s">
+        <v>3776</v>
+      </c>
+      <c r="D656" s="9" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4">
+      <c r="A657" s="15">
+        <v>656</v>
+      </c>
+      <c r="B657" s="5" t="s">
+        <v>3779</v>
+      </c>
+      <c r="C657" s="18" t="s">
         <v>3780</v>
       </c>
-      <c r="C656" s="18" t="s">
-        <v>3778</v>
-      </c>
-      <c r="D656" s="9" t="s">
-        <v>3779</v>
-      </c>
+      <c r="D657" s="9" t="s">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4">
+      <c r="A658" s="15"/>
+      <c r="B658" s="5"/>
+      <c r="C658" s="18"/>
+      <c r="D658" s="9"/>
+    </row>
+    <row r="659" spans="1:4">
+      <c r="A659" s="15"/>
+      <c r="B659" s="5"/>
+      <c r="C659" s="18"/>
+      <c r="D659" s="9"/>
+    </row>
+    <row r="660" spans="1:4">
+      <c r="A660" s="15"/>
+      <c r="B660" s="5"/>
+      <c r="C660" s="18"/>
+      <c r="D660" s="9"/>
+    </row>
+    <row r="661" spans="1:4">
+      <c r="A661" s="15"/>
+      <c r="B661" s="5"/>
+      <c r="C661" s="18"/>
+      <c r="D661" s="9"/>
+    </row>
+    <row r="662" spans="1:4">
+      <c r="A662" s="15"/>
+      <c r="B662" s="5"/>
+      <c r="C662" s="18"/>
+      <c r="D662" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -31129,8 +31186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -32099,10 +32156,10 @@
         <v>3438</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>3750</v>
+        <v>3748</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>3751</v>
+        <v>3749</v>
       </c>
       <c r="E48" s="1">
         <v>5</v>
@@ -32119,10 +32176,10 @@
         <v>3483</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>3484</v>
+        <v>3782</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>3486</v>
+        <v>3783</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -32139,7 +32196,7 @@
         <v>3483</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>3188</v>
@@ -32176,13 +32233,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3753</v>
+        <v>3751</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>3754</v>
+        <v>3752</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>3761</v>
+        <v>3759</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -32196,13 +32253,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>3751</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>3753</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>3755</v>
-      </c>
       <c r="D53" s="9" t="s">
-        <v>3758</v>
+        <v>3756</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -32216,13 +32273,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3753</v>
+        <v>3751</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>3756</v>
+        <v>3754</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>3759</v>
+        <v>3757</v>
       </c>
       <c r="E54" s="1">
         <v>3</v>
@@ -32236,13 +32293,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>3753</v>
+        <v>3751</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>3757</v>
+        <v>3755</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>3760</v>
+        <v>3758</v>
       </c>
       <c r="E55" s="1">
         <v>4</v>
@@ -32256,7 +32313,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>3764</v>
+        <v>3762</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>2710</v>
@@ -32276,13 +32333,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>3762</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>3763</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>3764</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>3765</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>3766</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -32363,7 +32420,7 @@
         <v>1836</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>1885</v>
@@ -32415,7 +32472,7 @@
         <v>1817</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3624</v>
+        <v>3622</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>1887</v>
@@ -32441,7 +32498,7 @@
         <v>1818</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3625</v>
+        <v>3623</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>1888</v>
@@ -32469,7 +32526,7 @@
         <v>1819</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>1889</v>
@@ -32497,7 +32554,7 @@
         <v>1837</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>1890</v>
@@ -32525,7 +32582,7 @@
         <v>1820</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>1891</v>
@@ -32553,7 +32610,7 @@
         <v>1821</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>1892</v>
@@ -32609,7 +32666,7 @@
         <v>1822</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>3630</v>
+        <v>3628</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>1894</v>
@@ -32637,7 +32694,7 @@
         <v>1823</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>1895</v>
@@ -32665,7 +32722,7 @@
         <v>1824</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>1896</v>
@@ -32693,7 +32750,7 @@
         <v>1825</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>1897</v>
@@ -32721,7 +32778,7 @@
         <v>1826</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>1898</v>
@@ -32749,7 +32806,7 @@
         <v>1827</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>1899</v>
@@ -32777,7 +32834,7 @@
         <v>1828</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>1900</v>
@@ -32805,7 +32862,7 @@
         <v>1829</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>3637</v>
+        <v>3635</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>1901</v>
@@ -32833,7 +32890,7 @@
         <v>1839</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>3638</v>
+        <v>3636</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>1902</v>
@@ -32861,7 +32918,7 @@
         <v>1830</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>3639</v>
+        <v>3637</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>1903</v>
@@ -32889,7 +32946,7 @@
         <v>1840</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>3640</v>
+        <v>3638</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>1899</v>
@@ -32917,7 +32974,7 @@
         <v>1831</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>1904</v>
@@ -32945,7 +33002,7 @@
         <v>1832</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>3642</v>
+        <v>3640</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>1905</v>
@@ -32973,7 +33030,7 @@
         <v>1842</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>3643</v>
+        <v>3641</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>1906</v>
@@ -33001,7 +33058,7 @@
         <v>1993</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>3644</v>
+        <v>3642</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>1907</v>
@@ -33029,7 +33086,7 @@
         <v>1992</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>3645</v>
+        <v>3643</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="1"/>
@@ -33053,7 +33110,7 @@
         <v>1990</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>3646</v>
+        <v>3644</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>1908</v>
@@ -33081,7 +33138,7 @@
         <v>1991</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>3647</v>
+        <v>3645</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="1"/>
@@ -33105,7 +33162,7 @@
         <v>1833</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>3648</v>
+        <v>3646</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>1909</v>
@@ -33133,7 +33190,7 @@
         <v>1834</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>3649</v>
+        <v>3647</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="1"/>
@@ -33157,7 +33214,7 @@
         <v>1835</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>3650</v>
+        <v>3648</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="1"/>

--- a/WebRoot/oem/heichao/locale/locale-en.xlsx
+++ b/WebRoot/oem/heichao/locale/locale-en.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18DC14A-9A21-4EC6-A4A9-E87A6F6D0234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6DCDED-0625-474C-95A3-B7446460F771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4012" uniqueCount="3787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="3790">
   <si>
     <t>myself</t>
   </si>
@@ -14296,6 +14296,15 @@
   <si>
     <t>日汇总计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocolSaveConfirm</t>
+  </si>
+  <si>
+    <t>名称或地址出现重复，保存将会覆盖，是否继续？</t>
+  </si>
+  <si>
+    <t>If there is a duplicate name or address, the save will be overwritten, do you want to continue?</t>
   </si>
 </sst>
 </file>
@@ -21941,8 +21950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
   <dimension ref="A1:D662"/>
   <sheetViews>
-    <sheetView topLeftCell="A639" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C665" sqref="C665"/>
+    <sheetView tabSelected="1" topLeftCell="A639" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A658" sqref="A658:D658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31151,10 +31160,18 @@
       </c>
     </row>
     <row r="658" spans="1:4">
-      <c r="A658" s="15"/>
-      <c r="B658" s="5"/>
-      <c r="C658" s="18"/>
-      <c r="D658" s="9"/>
+      <c r="A658" s="15">
+        <v>657</v>
+      </c>
+      <c r="B658" s="5" t="s">
+        <v>3787</v>
+      </c>
+      <c r="C658" s="18" t="s">
+        <v>3788</v>
+      </c>
+      <c r="D658" s="9" t="s">
+        <v>3789</v>
+      </c>
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="15"/>
@@ -31191,7 +31208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>

--- a/WebRoot/oem/heichao/locale/locale-en.xlsx
+++ b/WebRoot/oem/heichao/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2BD832-3DB4-4A8B-A2B1-FFC875AF2B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B9E5B0-6846-4996-B3CD-0CD8579593B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4063" uniqueCount="3838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4075" uniqueCount="3850">
   <si>
     <t>myself</t>
   </si>
@@ -14537,6 +14537,50 @@
   <si>
     <t>importRole</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataDictionaryList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importDictionaryList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入数据字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleExportFileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块导出数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dictionary list</t>
+  </si>
+  <si>
+    <t>Import data dictionary</t>
+  </si>
+  <si>
+    <t>module exports data</t>
+  </si>
+  <si>
+    <t>Import modules</t>
   </si>
   <si>
     <t>智能监控系统 V9.6</t>
@@ -16851,10 +16895,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>3832</v>
+        <v>3844</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3833</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -16865,10 +16909,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>3834</v>
+        <v>3846</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3835</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -16879,10 +16923,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>3836</v>
+        <v>3848</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>3837</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -22246,8 +22290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
   <dimension ref="A1:D683"/>
   <sheetViews>
-    <sheetView topLeftCell="A657" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B673" sqref="B673"/>
+    <sheetView topLeftCell="D657" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I679" sqref="I679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31680,28 +31724,60 @@
       </c>
     </row>
     <row r="674" spans="1:4">
-      <c r="A674" s="14"/>
-      <c r="B674" s="4"/>
-      <c r="C674" s="17"/>
-      <c r="D674" s="24"/>
+      <c r="A674" s="14">
+        <v>673</v>
+      </c>
+      <c r="B674" s="4" t="s">
+        <v>3832</v>
+      </c>
+      <c r="C674" s="17" t="s">
+        <v>3833</v>
+      </c>
+      <c r="D674" s="24" t="s">
+        <v>3840</v>
+      </c>
     </row>
     <row r="675" spans="1:4">
-      <c r="A675" s="14"/>
-      <c r="B675" s="4"/>
-      <c r="C675" s="17"/>
-      <c r="D675" s="24"/>
+      <c r="A675" s="14">
+        <v>674</v>
+      </c>
+      <c r="B675" s="4" t="s">
+        <v>3834</v>
+      </c>
+      <c r="C675" s="17" t="s">
+        <v>3835</v>
+      </c>
+      <c r="D675" s="24" t="s">
+        <v>3841</v>
+      </c>
     </row>
     <row r="676" spans="1:4">
-      <c r="A676" s="14"/>
-      <c r="B676" s="4"/>
-      <c r="C676" s="17"/>
-      <c r="D676" s="24"/>
+      <c r="A676" s="14">
+        <v>675</v>
+      </c>
+      <c r="B676" s="4" t="s">
+        <v>3836</v>
+      </c>
+      <c r="C676" s="17" t="s">
+        <v>3837</v>
+      </c>
+      <c r="D676" s="24" t="s">
+        <v>3842</v>
+      </c>
     </row>
     <row r="677" spans="1:4">
-      <c r="A677" s="14"/>
-      <c r="B677" s="4"/>
-      <c r="C677" s="17"/>
-      <c r="D677" s="24"/>
+      <c r="A677" s="14">
+        <v>676</v>
+      </c>
+      <c r="B677" s="4" t="s">
+        <v>3838</v>
+      </c>
+      <c r="C677" s="17" t="s">
+        <v>3839</v>
+      </c>
+      <c r="D677" s="24" t="s">
+        <v>3843</v>
+      </c>
     </row>
     <row r="678" spans="1:4">
       <c r="A678" s="14"/>

--- a/WebRoot/oem/heichao/locale/locale-en.xlsx
+++ b/WebRoot/oem/heichao/locale/locale-en.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B9E5B0-6846-4996-B3CD-0CD8579593B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A5D0E3-E869-46E2-850D-6128441923EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4075" uniqueCount="3850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4221" uniqueCount="3995">
   <si>
     <t>myself</t>
   </si>
@@ -14581,6 +14581,538 @@
   </si>
   <si>
     <t>Import modules</t>
+  </si>
+  <si>
+    <t>运维配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O&amp;M configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basicInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backupAndRecovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备份与恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginInterfaceLanguage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeEfficiencyUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时率单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendSimulationData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送模拟数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayTheLogo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceMonitoringLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源监测记录数限值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simulateDataSendingCycles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟数据发送周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printLogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportDataLimits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出数据限值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historicalDataMaintenance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史数据维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>executionCycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historicalDataTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sourceDataTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmHistoryTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警历史表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyTotalCalculateTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日累计计算表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyCalculationTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timingCalculationTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqdataVacuateTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据抽稀表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>executionTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataRetentionTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据保留时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataSparseness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据抽稀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sparseRecordCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽稀记录数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacuateSaveIntervalWaveRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽稀数据保存周期波动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacuateSaveInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽稀数据保存间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacuateThreshold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽稀表启用时的记录数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordsGreaterThan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录数大于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneKeyBackup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>featureList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backupDataImport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备份数据导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic information</t>
+  </si>
+  <si>
+    <t>Backup and recovery</t>
+  </si>
+  <si>
+    <t>Login interface language</t>
+  </si>
+  <si>
+    <t>Hourly rate unit</t>
+  </si>
+  <si>
+    <t>Send simulation data</t>
+  </si>
+  <si>
+    <t>Display the logo</t>
+  </si>
+  <si>
+    <t>Limit of the number of resource monitoring records</t>
+  </si>
+  <si>
+    <t>Simulate data sending cycles</t>
+  </si>
+  <si>
+    <t>Print logs</t>
+  </si>
+  <si>
+    <t>Export data limits</t>
+  </si>
+  <si>
+    <t>Historical data maintenance</t>
+  </si>
+  <si>
+    <t>Execution cycle</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>Historical data table</t>
+  </si>
+  <si>
+    <t>Source data table</t>
+  </si>
+  <si>
+    <t>Alarm history table</t>
+  </si>
+  <si>
+    <t>Daily cumulative calculation table</t>
+  </si>
+  <si>
+    <t>Summary table</t>
+  </si>
+  <si>
+    <t>Timing summary table</t>
+  </si>
+  <si>
+    <t>Data sparse table</t>
+  </si>
+  <si>
+    <t>Execution time</t>
+  </si>
+  <si>
+    <t>Data retention time</t>
+  </si>
+  <si>
+    <t>End time</t>
+  </si>
+  <si>
+    <t>Data sparseness</t>
+  </si>
+  <si>
+    <t>Number of sparse records</t>
+  </si>
+  <si>
+    <t>The storage period of sampling data fluctuates</t>
+  </si>
+  <si>
+    <t>Sampling data storage interval</t>
+  </si>
+  <si>
+    <t>The number of records when the sparse table is enabled</t>
+  </si>
+  <si>
+    <t>The number of records is greater than</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>One-click export</t>
+  </si>
+  <si>
+    <t>Feature list</t>
+  </si>
+  <si>
+    <t>Backup data import</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataDictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primaryDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportModuleData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入模块数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportOrgAndRoleData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入组织数据和角色数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportOrgAndDriverData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入组织数据和驱动数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportProtocolData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入协议数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportAcqUnitData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入采控单元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportDisplayUnitData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入显示单元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportAlarmUnitData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入报警单元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportReportUnitData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入报表单元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>Data Dictionary</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>Main equipment</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Import the module data first</t>
+  </si>
+  <si>
+    <t>Import your organization data and role data first</t>
+  </si>
+  <si>
+    <t>Import organizational data and driver data first</t>
+  </si>
+  <si>
+    <t>Please import the protocol data first</t>
+  </si>
+  <si>
+    <t>Import the data of the control unit first</t>
+  </si>
+  <si>
+    <t>Please import the display unit data first</t>
+  </si>
+  <si>
+    <t>Please import the alarm unit data first</t>
+  </si>
+  <si>
+    <t>Please import the report unit data first</t>
   </si>
   <si>
     <t>智能监控系统 V9.6</t>
@@ -16862,7 +17394,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D6"/>
+      <selection activeCell="C2" sqref="C2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16895,10 +17427,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>3844</v>
+        <v>3989</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3845</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -16909,10 +17441,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>3846</v>
+        <v>3991</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3847</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -16923,10 +17455,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>3848</v>
+        <v>3993</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>3849</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -22288,10 +22820,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D683"/>
+  <dimension ref="A1:D725"/>
   <sheetViews>
-    <sheetView topLeftCell="D657" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I679" sqref="I679"/>
+    <sheetView topLeftCell="A699" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D730" sqref="D730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31780,40 +32312,676 @@
       </c>
     </row>
     <row r="678" spans="1:4">
-      <c r="A678" s="14"/>
-      <c r="B678" s="4"/>
-      <c r="C678" s="17"/>
-      <c r="D678" s="24"/>
+      <c r="A678" s="14">
+        <v>677</v>
+      </c>
+      <c r="B678" s="4" t="s">
+        <v>3846</v>
+      </c>
+      <c r="C678" s="17" t="s">
+        <v>3847</v>
+      </c>
+      <c r="D678" s="24" t="s">
+        <v>3916</v>
+      </c>
     </row>
     <row r="679" spans="1:4">
-      <c r="A679" s="14"/>
-      <c r="B679" s="4"/>
-      <c r="C679" s="17"/>
-      <c r="D679" s="24"/>
+      <c r="A679" s="14">
+        <v>678</v>
+      </c>
+      <c r="B679" s="4" t="s">
+        <v>3848</v>
+      </c>
+      <c r="C679" s="17" t="s">
+        <v>3849</v>
+      </c>
+      <c r="D679" s="24" t="s">
+        <v>3917</v>
+      </c>
     </row>
     <row r="680" spans="1:4">
-      <c r="A680" s="14"/>
-      <c r="B680" s="4"/>
-      <c r="C680" s="17"/>
-      <c r="D680" s="24"/>
+      <c r="A680" s="14">
+        <v>679</v>
+      </c>
+      <c r="B680" s="4" t="s">
+        <v>3850</v>
+      </c>
+      <c r="C680" s="17" t="s">
+        <v>3851</v>
+      </c>
+      <c r="D680" s="24" t="s">
+        <v>3918</v>
+      </c>
     </row>
     <row r="681" spans="1:4">
-      <c r="A681" s="14"/>
-      <c r="B681" s="4"/>
-      <c r="C681" s="17"/>
-      <c r="D681" s="24"/>
+      <c r="A681" s="14">
+        <v>680</v>
+      </c>
+      <c r="B681" s="4" t="s">
+        <v>3852</v>
+      </c>
+      <c r="C681" s="17" t="s">
+        <v>3853</v>
+      </c>
+      <c r="D681" s="24" t="s">
+        <v>3919</v>
+      </c>
     </row>
     <row r="682" spans="1:4">
-      <c r="A682" s="14"/>
-      <c r="B682" s="4"/>
-      <c r="C682" s="17"/>
-      <c r="D682" s="24"/>
+      <c r="A682" s="14">
+        <v>681</v>
+      </c>
+      <c r="B682" s="4" t="s">
+        <v>3854</v>
+      </c>
+      <c r="C682" s="17" t="s">
+        <v>3855</v>
+      </c>
+      <c r="D682" s="24" t="s">
+        <v>3920</v>
+      </c>
     </row>
     <row r="683" spans="1:4">
-      <c r="A683" s="14"/>
-      <c r="B683" s="4"/>
-      <c r="C683" s="17"/>
-      <c r="D683" s="24"/>
+      <c r="A683" s="14">
+        <v>682</v>
+      </c>
+      <c r="B683" s="4" t="s">
+        <v>3856</v>
+      </c>
+      <c r="C683" s="17" t="s">
+        <v>3857</v>
+      </c>
+      <c r="D683" s="24" t="s">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4">
+      <c r="A684" s="14">
+        <v>683</v>
+      </c>
+      <c r="B684" s="4" t="s">
+        <v>3858</v>
+      </c>
+      <c r="C684" s="17" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D684" s="24" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4">
+      <c r="A685" s="14">
+        <v>684</v>
+      </c>
+      <c r="B685" s="4" t="s">
+        <v>3860</v>
+      </c>
+      <c r="C685" s="17" t="s">
+        <v>3861</v>
+      </c>
+      <c r="D685" s="24" t="s">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4">
+      <c r="A686" s="14">
+        <v>685</v>
+      </c>
+      <c r="B686" s="4" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C686" s="17" t="s">
+        <v>3863</v>
+      </c>
+      <c r="D686" s="24" t="s">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4">
+      <c r="A687" s="14">
+        <v>686</v>
+      </c>
+      <c r="B687" s="4" t="s">
+        <v>3864</v>
+      </c>
+      <c r="C687" s="17" t="s">
+        <v>3865</v>
+      </c>
+      <c r="D687" s="24" t="s">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4">
+      <c r="A688" s="14">
+        <v>687</v>
+      </c>
+      <c r="B688" s="4" t="s">
+        <v>3866</v>
+      </c>
+      <c r="C688" s="17" t="s">
+        <v>3867</v>
+      </c>
+      <c r="D688" s="24" t="s">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4">
+      <c r="A689" s="14">
+        <v>688</v>
+      </c>
+      <c r="B689" s="4" t="s">
+        <v>3868</v>
+      </c>
+      <c r="C689" s="17" t="s">
+        <v>3869</v>
+      </c>
+      <c r="D689" s="24" t="s">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4">
+      <c r="A690" s="14">
+        <v>689</v>
+      </c>
+      <c r="B690" s="4" t="s">
+        <v>3870</v>
+      </c>
+      <c r="C690" s="17" t="s">
+        <v>3871</v>
+      </c>
+      <c r="D690" s="24" t="s">
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4">
+      <c r="A691" s="14">
+        <v>690</v>
+      </c>
+      <c r="B691" s="4" t="s">
+        <v>3872</v>
+      </c>
+      <c r="C691" s="17" t="s">
+        <v>3873</v>
+      </c>
+      <c r="D691" s="24" t="s">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4">
+      <c r="A692" s="14">
+        <v>691</v>
+      </c>
+      <c r="B692" s="4" t="s">
+        <v>3874</v>
+      </c>
+      <c r="C692" s="17" t="s">
+        <v>3875</v>
+      </c>
+      <c r="D692" s="24" t="s">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4">
+      <c r="A693" s="14">
+        <v>692</v>
+      </c>
+      <c r="B693" s="4" t="s">
+        <v>3876</v>
+      </c>
+      <c r="C693" s="17" t="s">
+        <v>3877</v>
+      </c>
+      <c r="D693" s="24" t="s">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4">
+      <c r="A694" s="14">
+        <v>693</v>
+      </c>
+      <c r="B694" s="4" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C694" s="17" t="s">
+        <v>3879</v>
+      </c>
+      <c r="D694" s="24" t="s">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4">
+      <c r="A695" s="14">
+        <v>694</v>
+      </c>
+      <c r="B695" s="4" t="s">
+        <v>3880</v>
+      </c>
+      <c r="C695" s="17" t="s">
+        <v>3881</v>
+      </c>
+      <c r="D695" s="24" t="s">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4">
+      <c r="A696" s="14">
+        <v>695</v>
+      </c>
+      <c r="B696" s="4" t="s">
+        <v>3882</v>
+      </c>
+      <c r="C696" s="17" t="s">
+        <v>3883</v>
+      </c>
+      <c r="D696" s="24" t="s">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4">
+      <c r="A697" s="14">
+        <v>696</v>
+      </c>
+      <c r="B697" s="4" t="s">
+        <v>3884</v>
+      </c>
+      <c r="C697" s="17" t="s">
+        <v>3885</v>
+      </c>
+      <c r="D697" s="24" t="s">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4">
+      <c r="A698" s="14">
+        <v>697</v>
+      </c>
+      <c r="B698" s="4" t="s">
+        <v>3886</v>
+      </c>
+      <c r="C698" s="17" t="s">
+        <v>3887</v>
+      </c>
+      <c r="D698" s="24" t="s">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4">
+      <c r="A699" s="14">
+        <v>698</v>
+      </c>
+      <c r="B699" s="4" t="s">
+        <v>3888</v>
+      </c>
+      <c r="C699" s="17" t="s">
+        <v>3889</v>
+      </c>
+      <c r="D699" s="24" t="s">
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4">
+      <c r="A700" s="14">
+        <v>699</v>
+      </c>
+      <c r="B700" s="4" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C700" s="17" t="s">
+        <v>3891</v>
+      </c>
+      <c r="D700" s="24" t="s">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4">
+      <c r="A701" s="14">
+        <v>700</v>
+      </c>
+      <c r="B701" s="4" t="s">
+        <v>3892</v>
+      </c>
+      <c r="C701" s="17" t="s">
+        <v>3893</v>
+      </c>
+      <c r="D701" s="24" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4">
+      <c r="A702" s="14">
+        <v>701</v>
+      </c>
+      <c r="B702" s="4" t="s">
+        <v>3894</v>
+      </c>
+      <c r="C702" s="17" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D702" s="24" t="s">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4">
+      <c r="A703" s="14">
+        <v>702</v>
+      </c>
+      <c r="B703" s="4" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C703" s="17" t="s">
+        <v>3897</v>
+      </c>
+      <c r="D703" s="24" t="s">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4">
+      <c r="A704" s="14">
+        <v>703</v>
+      </c>
+      <c r="B704" s="4" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C704" s="17" t="s">
+        <v>3899</v>
+      </c>
+      <c r="D704" s="24" t="s">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4">
+      <c r="A705" s="14">
+        <v>704</v>
+      </c>
+      <c r="B705" s="4" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C705" s="17" t="s">
+        <v>3901</v>
+      </c>
+      <c r="D705" s="24" t="s">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4">
+      <c r="A706" s="14">
+        <v>705</v>
+      </c>
+      <c r="B706" s="4" t="s">
+        <v>3902</v>
+      </c>
+      <c r="C706" s="17" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D706" s="24" t="s">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4">
+      <c r="A707" s="14">
+        <v>706</v>
+      </c>
+      <c r="B707" s="4" t="s">
+        <v>3904</v>
+      </c>
+      <c r="C707" s="17" t="s">
+        <v>3905</v>
+      </c>
+      <c r="D707" s="24" t="s">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4">
+      <c r="A708" s="14">
+        <v>707</v>
+      </c>
+      <c r="B708" s="4" t="s">
+        <v>3906</v>
+      </c>
+      <c r="C708" s="17" t="s">
+        <v>3907</v>
+      </c>
+      <c r="D708" s="24" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4">
+      <c r="A709" s="14">
+        <v>708</v>
+      </c>
+      <c r="B709" s="4" t="s">
+        <v>3908</v>
+      </c>
+      <c r="C709" s="17" t="s">
+        <v>3909</v>
+      </c>
+      <c r="D709" s="24" t="s">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4">
+      <c r="A710" s="14">
+        <v>709</v>
+      </c>
+      <c r="B710" s="4" t="s">
+        <v>3910</v>
+      </c>
+      <c r="C710" s="17" t="s">
+        <v>3911</v>
+      </c>
+      <c r="D710" s="24" t="s">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4">
+      <c r="A711" s="14">
+        <v>710</v>
+      </c>
+      <c r="B711" s="4" t="s">
+        <v>3912</v>
+      </c>
+      <c r="C711" s="17" t="s">
+        <v>3913</v>
+      </c>
+      <c r="D711" s="24" t="s">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4">
+      <c r="A712" s="14">
+        <v>711</v>
+      </c>
+      <c r="B712" s="4" t="s">
+        <v>3914</v>
+      </c>
+      <c r="C712" s="17" t="s">
+        <v>3915</v>
+      </c>
+      <c r="D712" s="24" t="s">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4">
+      <c r="A713" s="14">
+        <v>712</v>
+      </c>
+      <c r="B713" s="4" t="s">
+        <v>3951</v>
+      </c>
+      <c r="C713" s="17" t="s">
+        <v>3952</v>
+      </c>
+      <c r="D713" s="24" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4">
+      <c r="A714" s="14">
+        <v>713</v>
+      </c>
+      <c r="B714" s="4" t="s">
+        <v>3953</v>
+      </c>
+      <c r="C714" s="17" t="s">
+        <v>3954</v>
+      </c>
+      <c r="D714" s="24" t="s">
+        <v>3977</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4">
+      <c r="A715" s="14">
+        <v>714</v>
+      </c>
+      <c r="B715" s="4" t="s">
+        <v>3955</v>
+      </c>
+      <c r="C715" s="17" t="s">
+        <v>3956</v>
+      </c>
+      <c r="D715" s="24" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4">
+      <c r="A716" s="14">
+        <v>715</v>
+      </c>
+      <c r="B716" s="4" t="s">
+        <v>3957</v>
+      </c>
+      <c r="C716" s="17" t="s">
+        <v>3220</v>
+      </c>
+      <c r="D716" s="24" t="s">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4">
+      <c r="A717" s="14">
+        <v>716</v>
+      </c>
+      <c r="B717" s="4" t="s">
+        <v>3958</v>
+      </c>
+      <c r="C717" s="17" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D717" s="24" t="s">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4">
+      <c r="A718" s="14">
+        <v>717</v>
+      </c>
+      <c r="B718" s="4" t="s">
+        <v>3960</v>
+      </c>
+      <c r="C718" s="17" t="s">
+        <v>3961</v>
+      </c>
+      <c r="D718" s="24" t="s">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4">
+      <c r="A719" s="14">
+        <v>718</v>
+      </c>
+      <c r="B719" s="4" t="s">
+        <v>3962</v>
+      </c>
+      <c r="C719" s="17" t="s">
+        <v>3963</v>
+      </c>
+      <c r="D719" s="24" t="s">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4">
+      <c r="A720" s="14">
+        <v>719</v>
+      </c>
+      <c r="B720" s="4" t="s">
+        <v>3964</v>
+      </c>
+      <c r="C720" s="17" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D720" s="24" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4">
+      <c r="A721" s="14">
+        <v>720</v>
+      </c>
+      <c r="B721" s="4" t="s">
+        <v>3966</v>
+      </c>
+      <c r="C721" s="17" t="s">
+        <v>3967</v>
+      </c>
+      <c r="D721" s="24" t="s">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4">
+      <c r="A722" s="14">
+        <v>721</v>
+      </c>
+      <c r="B722" s="4" t="s">
+        <v>3968</v>
+      </c>
+      <c r="C722" s="17" t="s">
+        <v>3969</v>
+      </c>
+      <c r="D722" s="24" t="s">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4">
+      <c r="A723" s="14">
+        <v>722</v>
+      </c>
+      <c r="B723" s="4" t="s">
+        <v>3970</v>
+      </c>
+      <c r="C723" s="17" t="s">
+        <v>3971</v>
+      </c>
+      <c r="D723" s="24" t="s">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4">
+      <c r="A724" s="14">
+        <v>723</v>
+      </c>
+      <c r="B724" s="4" t="s">
+        <v>3972</v>
+      </c>
+      <c r="C724" s="17" t="s">
+        <v>3973</v>
+      </c>
+      <c r="D724" s="24" t="s">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4">
+      <c r="A725" s="14">
+        <v>724</v>
+      </c>
+      <c r="B725" s="4" t="s">
+        <v>3974</v>
+      </c>
+      <c r="C725" s="17" t="s">
+        <v>3975</v>
+      </c>
+      <c r="D725" s="24" t="s">
+        <v>3988</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -33898,10 +35066,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -34129,6 +35297,17 @@
       </c>
       <c r="C20" s="24" t="s">
         <v>3217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3844</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>3845</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/oem/heichao/locale/locale-en.xlsx
+++ b/WebRoot/oem/heichao/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A5D0E3-E869-46E2-850D-6128441923EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9B5053-81F1-4A3E-9D42-34C25040C07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14595,18 +14595,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基础信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>backupAndRecovery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备份与恢复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>loginInterfaceLanguage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14871,12 +14863,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Basic information</t>
-  </si>
-  <si>
-    <t>Backup and recovery</t>
-  </si>
-  <si>
     <t>Login interface language</t>
   </si>
   <si>
@@ -15113,6 +15099,22 @@
   </si>
   <si>
     <t>Please import the report unit data first</t>
+  </si>
+  <si>
+    <t>Automated O&amp;M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动运维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构备份与恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Structural backup and recovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>智能监控系统 V9.6</t>
@@ -17394,7 +17396,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D4"/>
+      <selection activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22822,8 +22824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
   <dimension ref="A1:D725"/>
   <sheetViews>
-    <sheetView topLeftCell="A699" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D730" sqref="D730"/>
+    <sheetView topLeftCell="A666" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E696" sqref="E696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -32319,10 +32321,10 @@
         <v>3846</v>
       </c>
       <c r="C678" s="17" t="s">
-        <v>3847</v>
+        <v>3986</v>
       </c>
       <c r="D678" s="24" t="s">
-        <v>3916</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -32330,13 +32332,13 @@
         <v>678</v>
       </c>
       <c r="B679" s="4" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="C679" s="17" t="s">
-        <v>3849</v>
+        <v>3987</v>
       </c>
       <c r="D679" s="24" t="s">
-        <v>3917</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -32344,13 +32346,13 @@
         <v>679</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>3850</v>
+        <v>3848</v>
       </c>
       <c r="C680" s="17" t="s">
-        <v>3851</v>
+        <v>3849</v>
       </c>
       <c r="D680" s="24" t="s">
-        <v>3918</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -32358,13 +32360,13 @@
         <v>680</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>3852</v>
+        <v>3850</v>
       </c>
       <c r="C681" s="17" t="s">
-        <v>3853</v>
+        <v>3851</v>
       </c>
       <c r="D681" s="24" t="s">
-        <v>3919</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -32372,13 +32374,13 @@
         <v>681</v>
       </c>
       <c r="B682" s="4" t="s">
-        <v>3854</v>
+        <v>3852</v>
       </c>
       <c r="C682" s="17" t="s">
-        <v>3855</v>
+        <v>3853</v>
       </c>
       <c r="D682" s="24" t="s">
-        <v>3920</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -32386,13 +32388,13 @@
         <v>682</v>
       </c>
       <c r="B683" s="4" t="s">
-        <v>3856</v>
+        <v>3854</v>
       </c>
       <c r="C683" s="17" t="s">
-        <v>3857</v>
+        <v>3855</v>
       </c>
       <c r="D683" s="24" t="s">
-        <v>3921</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -32400,13 +32402,13 @@
         <v>683</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>3858</v>
+        <v>3856</v>
       </c>
       <c r="C684" s="17" t="s">
-        <v>3859</v>
+        <v>3857</v>
       </c>
       <c r="D684" s="24" t="s">
-        <v>3922</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -32414,13 +32416,13 @@
         <v>684</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
       <c r="C685" s="17" t="s">
-        <v>3861</v>
+        <v>3859</v>
       </c>
       <c r="D685" s="24" t="s">
-        <v>3923</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -32428,13 +32430,13 @@
         <v>685</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>3862</v>
+        <v>3860</v>
       </c>
       <c r="C686" s="17" t="s">
-        <v>3863</v>
+        <v>3861</v>
       </c>
       <c r="D686" s="24" t="s">
-        <v>3924</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -32442,13 +32444,13 @@
         <v>686</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>3864</v>
+        <v>3862</v>
       </c>
       <c r="C687" s="17" t="s">
-        <v>3865</v>
+        <v>3863</v>
       </c>
       <c r="D687" s="24" t="s">
-        <v>3925</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -32456,13 +32458,13 @@
         <v>687</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>3866</v>
+        <v>3864</v>
       </c>
       <c r="C688" s="17" t="s">
-        <v>3867</v>
+        <v>3865</v>
       </c>
       <c r="D688" s="24" t="s">
-        <v>3926</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -32470,13 +32472,13 @@
         <v>688</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>3868</v>
+        <v>3866</v>
       </c>
       <c r="C689" s="17" t="s">
-        <v>3869</v>
+        <v>3867</v>
       </c>
       <c r="D689" s="24" t="s">
-        <v>3927</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -32484,13 +32486,13 @@
         <v>689</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>3870</v>
+        <v>3868</v>
       </c>
       <c r="C690" s="17" t="s">
-        <v>3871</v>
+        <v>3869</v>
       </c>
       <c r="D690" s="24" t="s">
-        <v>3928</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -32498,13 +32500,13 @@
         <v>690</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>3872</v>
+        <v>3870</v>
       </c>
       <c r="C691" s="17" t="s">
-        <v>3873</v>
+        <v>3871</v>
       </c>
       <c r="D691" s="24" t="s">
-        <v>3929</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -32512,13 +32514,13 @@
         <v>691</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>3874</v>
+        <v>3872</v>
       </c>
       <c r="C692" s="17" t="s">
-        <v>3875</v>
+        <v>3873</v>
       </c>
       <c r="D692" s="24" t="s">
-        <v>3930</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -32526,13 +32528,13 @@
         <v>692</v>
       </c>
       <c r="B693" s="4" t="s">
-        <v>3876</v>
+        <v>3874</v>
       </c>
       <c r="C693" s="17" t="s">
-        <v>3877</v>
+        <v>3875</v>
       </c>
       <c r="D693" s="24" t="s">
-        <v>3931</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -32540,13 +32542,13 @@
         <v>693</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>3878</v>
+        <v>3876</v>
       </c>
       <c r="C694" s="17" t="s">
-        <v>3879</v>
+        <v>3877</v>
       </c>
       <c r="D694" s="24" t="s">
-        <v>3932</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -32554,13 +32556,13 @@
         <v>694</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>3880</v>
+        <v>3878</v>
       </c>
       <c r="C695" s="17" t="s">
-        <v>3881</v>
+        <v>3879</v>
       </c>
       <c r="D695" s="24" t="s">
-        <v>3933</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -32568,13 +32570,13 @@
         <v>695</v>
       </c>
       <c r="B696" s="4" t="s">
-        <v>3882</v>
+        <v>3880</v>
       </c>
       <c r="C696" s="17" t="s">
-        <v>3883</v>
+        <v>3881</v>
       </c>
       <c r="D696" s="24" t="s">
-        <v>3934</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -32582,13 +32584,13 @@
         <v>696</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>3884</v>
+        <v>3882</v>
       </c>
       <c r="C697" s="17" t="s">
-        <v>3885</v>
+        <v>3883</v>
       </c>
       <c r="D697" s="24" t="s">
-        <v>3935</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -32596,13 +32598,13 @@
         <v>697</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>3886</v>
+        <v>3884</v>
       </c>
       <c r="C698" s="17" t="s">
-        <v>3887</v>
+        <v>3885</v>
       </c>
       <c r="D698" s="24" t="s">
-        <v>3936</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -32610,13 +32612,13 @@
         <v>698</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>3888</v>
+        <v>3886</v>
       </c>
       <c r="C699" s="17" t="s">
-        <v>3889</v>
+        <v>3887</v>
       </c>
       <c r="D699" s="24" t="s">
-        <v>3937</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -32624,13 +32626,13 @@
         <v>699</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>3890</v>
+        <v>3888</v>
       </c>
       <c r="C700" s="17" t="s">
-        <v>3891</v>
+        <v>3889</v>
       </c>
       <c r="D700" s="24" t="s">
-        <v>3938</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -32638,13 +32640,13 @@
         <v>700</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>3892</v>
+        <v>3890</v>
       </c>
       <c r="C701" s="17" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="D701" s="24" t="s">
-        <v>3939</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -32652,13 +32654,13 @@
         <v>701</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>3894</v>
+        <v>3892</v>
       </c>
       <c r="C702" s="17" t="s">
-        <v>3895</v>
+        <v>3893</v>
       </c>
       <c r="D702" s="24" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -32666,13 +32668,13 @@
         <v>702</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>3896</v>
+        <v>3894</v>
       </c>
       <c r="C703" s="17" t="s">
-        <v>3897</v>
+        <v>3895</v>
       </c>
       <c r="D703" s="24" t="s">
-        <v>3941</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -32680,13 +32682,13 @@
         <v>703</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
       <c r="C704" s="17" t="s">
-        <v>3899</v>
+        <v>3897</v>
       </c>
       <c r="D704" s="24" t="s">
-        <v>3942</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -32694,13 +32696,13 @@
         <v>704</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>3900</v>
+        <v>3898</v>
       </c>
       <c r="C705" s="17" t="s">
-        <v>3901</v>
+        <v>3899</v>
       </c>
       <c r="D705" s="24" t="s">
-        <v>3943</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -32708,13 +32710,13 @@
         <v>705</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
       <c r="C706" s="17" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="D706" s="24" t="s">
-        <v>3944</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -32722,13 +32724,13 @@
         <v>706</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>3904</v>
+        <v>3902</v>
       </c>
       <c r="C707" s="17" t="s">
-        <v>3905</v>
+        <v>3903</v>
       </c>
       <c r="D707" s="24" t="s">
-        <v>3945</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -32736,13 +32738,13 @@
         <v>707</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>3906</v>
+        <v>3904</v>
       </c>
       <c r="C708" s="17" t="s">
-        <v>3907</v>
+        <v>3905</v>
       </c>
       <c r="D708" s="24" t="s">
-        <v>3946</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -32750,13 +32752,13 @@
         <v>708</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>3908</v>
+        <v>3906</v>
       </c>
       <c r="C709" s="17" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
       <c r="D709" s="24" t="s">
-        <v>3947</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -32764,13 +32766,13 @@
         <v>709</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>3910</v>
+        <v>3908</v>
       </c>
       <c r="C710" s="17" t="s">
-        <v>3911</v>
+        <v>3909</v>
       </c>
       <c r="D710" s="24" t="s">
-        <v>3948</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -32778,13 +32780,13 @@
         <v>710</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="C711" s="17" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
       <c r="D711" s="24" t="s">
-        <v>3949</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -32792,13 +32794,13 @@
         <v>711</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
       <c r="C712" s="17" t="s">
-        <v>3915</v>
+        <v>3913</v>
       </c>
       <c r="D712" s="24" t="s">
-        <v>3950</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -32806,13 +32808,13 @@
         <v>712</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>3951</v>
+        <v>3947</v>
       </c>
       <c r="C713" s="17" t="s">
-        <v>3952</v>
+        <v>3948</v>
       </c>
       <c r="D713" s="24" t="s">
-        <v>3976</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -32820,13 +32822,13 @@
         <v>713</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>3953</v>
+        <v>3949</v>
       </c>
       <c r="C714" s="17" t="s">
-        <v>3954</v>
+        <v>3950</v>
       </c>
       <c r="D714" s="24" t="s">
-        <v>3977</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -32834,13 +32836,13 @@
         <v>714</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>3955</v>
+        <v>3951</v>
       </c>
       <c r="C715" s="17" t="s">
-        <v>3956</v>
+        <v>3952</v>
       </c>
       <c r="D715" s="24" t="s">
-        <v>3978</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -32848,13 +32850,13 @@
         <v>715</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>3957</v>
+        <v>3953</v>
       </c>
       <c r="C716" s="17" t="s">
         <v>3220</v>
       </c>
       <c r="D716" s="24" t="s">
-        <v>3979</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -32862,13 +32864,13 @@
         <v>716</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>3958</v>
+        <v>3954</v>
       </c>
       <c r="C717" s="17" t="s">
-        <v>3959</v>
+        <v>3955</v>
       </c>
       <c r="D717" s="24" t="s">
-        <v>3980</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -32876,13 +32878,13 @@
         <v>717</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>3960</v>
+        <v>3956</v>
       </c>
       <c r="C718" s="17" t="s">
-        <v>3961</v>
+        <v>3957</v>
       </c>
       <c r="D718" s="24" t="s">
-        <v>3981</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -32890,13 +32892,13 @@
         <v>718</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>3962</v>
+        <v>3958</v>
       </c>
       <c r="C719" s="17" t="s">
-        <v>3963</v>
+        <v>3959</v>
       </c>
       <c r="D719" s="24" t="s">
-        <v>3982</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -32904,13 +32906,13 @@
         <v>719</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>3964</v>
+        <v>3960</v>
       </c>
       <c r="C720" s="17" t="s">
-        <v>3965</v>
+        <v>3961</v>
       </c>
       <c r="D720" s="24" t="s">
-        <v>3983</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -32918,13 +32920,13 @@
         <v>720</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>3966</v>
+        <v>3962</v>
       </c>
       <c r="C721" s="17" t="s">
-        <v>3967</v>
+        <v>3963</v>
       </c>
       <c r="D721" s="24" t="s">
-        <v>3984</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -32932,13 +32934,13 @@
         <v>721</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>3968</v>
+        <v>3964</v>
       </c>
       <c r="C722" s="17" t="s">
-        <v>3969</v>
+        <v>3965</v>
       </c>
       <c r="D722" s="24" t="s">
-        <v>3985</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -32946,13 +32948,13 @@
         <v>722</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>3970</v>
+        <v>3966</v>
       </c>
       <c r="C723" s="17" t="s">
-        <v>3971</v>
+        <v>3967</v>
       </c>
       <c r="D723" s="24" t="s">
-        <v>3986</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -32960,13 +32962,13 @@
         <v>723</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>3972</v>
+        <v>3968</v>
       </c>
       <c r="C724" s="17" t="s">
-        <v>3973</v>
+        <v>3969</v>
       </c>
       <c r="D724" s="24" t="s">
-        <v>3987</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -32974,13 +32976,13 @@
         <v>724</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>3974</v>
+        <v>3970</v>
       </c>
       <c r="C725" s="17" t="s">
-        <v>3975</v>
+        <v>3971</v>
       </c>
       <c r="D725" s="24" t="s">
-        <v>3988</v>
+        <v>3984</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/oem/heichao/locale/locale-en.xlsx
+++ b/WebRoot/oem/heichao/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9B5053-81F1-4A3E-9D42-34C25040C07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B30152-D9F2-4E1E-9AD5-FBD79B8B3EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14779,26 +14779,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽稀记录数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vacuateSaveIntervalWaveRange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽稀数据保存周期波动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vacuateSaveInterval</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽稀数据保存间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vacuateThreshold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14929,15 +14917,6 @@
     <t>Data sparseness</t>
   </si>
   <si>
-    <t>Number of sparse records</t>
-  </si>
-  <si>
-    <t>The storage period of sampling data fluctuates</t>
-  </si>
-  <si>
-    <t>Sampling data storage interval</t>
-  </si>
-  <si>
     <t>The number of records when the sparse table is enabled</t>
   </si>
   <si>
@@ -14962,6 +14941,10 @@
     <t>Next</t>
   </si>
   <si>
+    <t>智能监控系统 V9.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>module</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15117,19 +15100,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>智能监控系统 V9.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intelligent Monitoring System V9.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《智能监控系统 V9.6》主要在采集、控制的基础上，侧重油井智能分析。模块主要包括实时监控、历史查询、生产报表、故障查询、日志查询、计算维护、驱动配置、权限管理、设备管理、系统配置等。系统应用大数据分析方法，对生产关键指标进行统计分析，及时发现生产不正常井，挖掘生产潜力井，提升对目标区块和单井的管控能力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intelligent Monitoring System V9.6 mainly focuses on the intelligent analysis of oil wells on the basis of collection and control. The module mainly includes real-time monitoring, historical query, production report, fault query, log query, calculation and maintenance, driver configuration, permission management, device management, system configuration, etc. The system applies big data analysis methods to statistically analyze key production indicators, find abnormal production wells in time, tap production potential wells, and improve the management and control capabilities of target blocks and single wells.</t>
+    <t>记录数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存盘周期波动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存盘周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of records</t>
+  </si>
+  <si>
+    <t>The deposit cycle fluctuates</t>
+  </si>
+  <si>
+    <t>Storage period</t>
+  </si>
+  <si>
+    <t>Intelligent Monitoring System V9.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《智能监控系统 V9.7》主要在采集、控制的基础上，侧重油井智能分析。模块主要包括实时监控、历史查询、生产报表、故障查询、日志查询、计算维护、驱动配置、权限管理、设备管理、系统配置等。系统应用大数据分析方法，对生产关键指标进行统计分析，及时发现生产不正常井，挖掘生产潜力井，提升对目标区块和单井的管控能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intelligent Monitoring System V9.7 mainly focuses on the intelligent analysis of oil wells on the basis of collection and control. The module mainly includes real-time monitoring, historical query, production report, fault query, log query, calculation and maintenance, driver configuration, permission management, device management, system configuration, etc. The system applies big data analysis methods to statistically analyze key production indicators, find abnormal production wells in time, tap production potential wells, and improve the management and control capabilities of target blocks and single wells.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -17429,7 +17429,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>3989</v>
+        <v>3941</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3990</v>
@@ -22824,8 +22824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
   <dimension ref="A1:D725"/>
   <sheetViews>
-    <sheetView topLeftCell="A666" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E696" sqref="E696"/>
+    <sheetView topLeftCell="A684" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D702" sqref="D702:D704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -32321,10 +32321,10 @@
         <v>3846</v>
       </c>
       <c r="C678" s="17" t="s">
-        <v>3986</v>
+        <v>3981</v>
       </c>
       <c r="D678" s="24" t="s">
-        <v>3985</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -32335,10 +32335,10 @@
         <v>3847</v>
       </c>
       <c r="C679" s="17" t="s">
-        <v>3987</v>
+        <v>3982</v>
       </c>
       <c r="D679" s="24" t="s">
-        <v>3988</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -32352,7 +32352,7 @@
         <v>3849</v>
       </c>
       <c r="D680" s="24" t="s">
-        <v>3914</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -32366,7 +32366,7 @@
         <v>3851</v>
       </c>
       <c r="D681" s="24" t="s">
-        <v>3915</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -32380,7 +32380,7 @@
         <v>3853</v>
       </c>
       <c r="D682" s="24" t="s">
-        <v>3916</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -32394,7 +32394,7 @@
         <v>3855</v>
       </c>
       <c r="D683" s="24" t="s">
-        <v>3917</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -32408,7 +32408,7 @@
         <v>3857</v>
       </c>
       <c r="D684" s="24" t="s">
-        <v>3918</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -32422,7 +32422,7 @@
         <v>3859</v>
       </c>
       <c r="D685" s="24" t="s">
-        <v>3919</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -32436,7 +32436,7 @@
         <v>3861</v>
       </c>
       <c r="D686" s="24" t="s">
-        <v>3920</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -32450,7 +32450,7 @@
         <v>3863</v>
       </c>
       <c r="D687" s="24" t="s">
-        <v>3921</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -32464,7 +32464,7 @@
         <v>3865</v>
       </c>
       <c r="D688" s="24" t="s">
-        <v>3922</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -32478,7 +32478,7 @@
         <v>3867</v>
       </c>
       <c r="D689" s="24" t="s">
-        <v>3923</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -32492,7 +32492,7 @@
         <v>3869</v>
       </c>
       <c r="D690" s="24" t="s">
-        <v>3924</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -32506,7 +32506,7 @@
         <v>3871</v>
       </c>
       <c r="D691" s="24" t="s">
-        <v>3925</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -32520,7 +32520,7 @@
         <v>3873</v>
       </c>
       <c r="D692" s="24" t="s">
-        <v>3926</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -32534,7 +32534,7 @@
         <v>3875</v>
       </c>
       <c r="D693" s="24" t="s">
-        <v>3927</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -32548,7 +32548,7 @@
         <v>3877</v>
       </c>
       <c r="D694" s="24" t="s">
-        <v>3928</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -32562,7 +32562,7 @@
         <v>3879</v>
       </c>
       <c r="D695" s="24" t="s">
-        <v>3929</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -32576,7 +32576,7 @@
         <v>3881</v>
       </c>
       <c r="D696" s="24" t="s">
-        <v>3930</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -32590,7 +32590,7 @@
         <v>3883</v>
       </c>
       <c r="D697" s="24" t="s">
-        <v>3931</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -32604,7 +32604,7 @@
         <v>3885</v>
       </c>
       <c r="D698" s="24" t="s">
-        <v>3932</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -32618,7 +32618,7 @@
         <v>3887</v>
       </c>
       <c r="D699" s="24" t="s">
-        <v>3933</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -32632,7 +32632,7 @@
         <v>3889</v>
       </c>
       <c r="D700" s="24" t="s">
-        <v>3934</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -32646,7 +32646,7 @@
         <v>3891</v>
       </c>
       <c r="D701" s="24" t="s">
-        <v>3935</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -32657,10 +32657,10 @@
         <v>3892</v>
       </c>
       <c r="C702" s="17" t="s">
-        <v>3893</v>
+        <v>3984</v>
       </c>
       <c r="D702" s="24" t="s">
-        <v>3936</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -32668,13 +32668,13 @@
         <v>702</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="C703" s="17" t="s">
-        <v>3895</v>
+        <v>3985</v>
       </c>
       <c r="D703" s="24" t="s">
-        <v>3937</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -32682,13 +32682,13 @@
         <v>703</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>3896</v>
+        <v>3894</v>
       </c>
       <c r="C704" s="17" t="s">
-        <v>3897</v>
+        <v>3986</v>
       </c>
       <c r="D704" s="24" t="s">
-        <v>3938</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -32696,13 +32696,13 @@
         <v>704</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>3898</v>
+        <v>3895</v>
       </c>
       <c r="C705" s="17" t="s">
-        <v>3899</v>
+        <v>3896</v>
       </c>
       <c r="D705" s="24" t="s">
-        <v>3939</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -32710,13 +32710,13 @@
         <v>705</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>3900</v>
+        <v>3897</v>
       </c>
       <c r="C706" s="17" t="s">
-        <v>3901</v>
+        <v>3898</v>
       </c>
       <c r="D706" s="24" t="s">
-        <v>3940</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -32724,13 +32724,13 @@
         <v>706</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>3902</v>
+        <v>3899</v>
       </c>
       <c r="C707" s="17" t="s">
-        <v>3903</v>
+        <v>3900</v>
       </c>
       <c r="D707" s="24" t="s">
-        <v>3941</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -32738,13 +32738,13 @@
         <v>707</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>3904</v>
+        <v>3901</v>
       </c>
       <c r="C708" s="17" t="s">
-        <v>3905</v>
+        <v>3902</v>
       </c>
       <c r="D708" s="24" t="s">
-        <v>3942</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -32752,13 +32752,13 @@
         <v>708</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>3906</v>
+        <v>3903</v>
       </c>
       <c r="C709" s="17" t="s">
-        <v>3907</v>
+        <v>3904</v>
       </c>
       <c r="D709" s="24" t="s">
-        <v>3943</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -32766,13 +32766,13 @@
         <v>709</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>3908</v>
+        <v>3905</v>
       </c>
       <c r="C710" s="17" t="s">
-        <v>3909</v>
+        <v>3906</v>
       </c>
       <c r="D710" s="24" t="s">
-        <v>3944</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -32780,13 +32780,13 @@
         <v>710</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>3910</v>
+        <v>3907</v>
       </c>
       <c r="C711" s="17" t="s">
-        <v>3911</v>
+        <v>3908</v>
       </c>
       <c r="D711" s="24" t="s">
-        <v>3945</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -32794,13 +32794,13 @@
         <v>711</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>3912</v>
+        <v>3909</v>
       </c>
       <c r="C712" s="17" t="s">
-        <v>3913</v>
+        <v>3910</v>
       </c>
       <c r="D712" s="24" t="s">
-        <v>3946</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -32808,13 +32808,13 @@
         <v>712</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>3947</v>
+        <v>3942</v>
       </c>
       <c r="C713" s="17" t="s">
-        <v>3948</v>
+        <v>3943</v>
       </c>
       <c r="D713" s="24" t="s">
-        <v>3972</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -32822,13 +32822,13 @@
         <v>713</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>3949</v>
+        <v>3944</v>
       </c>
       <c r="C714" s="17" t="s">
-        <v>3950</v>
+        <v>3945</v>
       </c>
       <c r="D714" s="24" t="s">
-        <v>3973</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -32836,13 +32836,13 @@
         <v>714</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>3951</v>
+        <v>3946</v>
       </c>
       <c r="C715" s="17" t="s">
-        <v>3952</v>
+        <v>3947</v>
       </c>
       <c r="D715" s="24" t="s">
-        <v>3974</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -32850,13 +32850,13 @@
         <v>715</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>3953</v>
+        <v>3948</v>
       </c>
       <c r="C716" s="17" t="s">
         <v>3220</v>
       </c>
       <c r="D716" s="24" t="s">
-        <v>3975</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -32864,13 +32864,13 @@
         <v>716</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>3954</v>
+        <v>3949</v>
       </c>
       <c r="C717" s="17" t="s">
-        <v>3955</v>
+        <v>3950</v>
       </c>
       <c r="D717" s="24" t="s">
-        <v>3976</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -32878,13 +32878,13 @@
         <v>717</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>3956</v>
+        <v>3951</v>
       </c>
       <c r="C718" s="17" t="s">
-        <v>3957</v>
+        <v>3952</v>
       </c>
       <c r="D718" s="24" t="s">
-        <v>3977</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -32892,13 +32892,13 @@
         <v>718</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>3958</v>
+        <v>3953</v>
       </c>
       <c r="C719" s="17" t="s">
-        <v>3959</v>
+        <v>3954</v>
       </c>
       <c r="D719" s="24" t="s">
-        <v>3978</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -32906,13 +32906,13 @@
         <v>719</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>3960</v>
+        <v>3955</v>
       </c>
       <c r="C720" s="17" t="s">
-        <v>3961</v>
+        <v>3956</v>
       </c>
       <c r="D720" s="24" t="s">
-        <v>3979</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -32920,13 +32920,13 @@
         <v>720</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>3962</v>
+        <v>3957</v>
       </c>
       <c r="C721" s="17" t="s">
-        <v>3963</v>
+        <v>3958</v>
       </c>
       <c r="D721" s="24" t="s">
-        <v>3980</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -32934,13 +32934,13 @@
         <v>721</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>3964</v>
+        <v>3959</v>
       </c>
       <c r="C722" s="17" t="s">
-        <v>3965</v>
+        <v>3960</v>
       </c>
       <c r="D722" s="24" t="s">
-        <v>3981</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -32948,13 +32948,13 @@
         <v>722</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>3966</v>
+        <v>3961</v>
       </c>
       <c r="C723" s="17" t="s">
-        <v>3967</v>
+        <v>3962</v>
       </c>
       <c r="D723" s="24" t="s">
-        <v>3982</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -32962,13 +32962,13 @@
         <v>723</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>3968</v>
+        <v>3963</v>
       </c>
       <c r="C724" s="17" t="s">
-        <v>3969</v>
+        <v>3964</v>
       </c>
       <c r="D724" s="24" t="s">
-        <v>3983</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -32976,13 +32976,13 @@
         <v>724</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>3970</v>
+        <v>3965</v>
       </c>
       <c r="C725" s="17" t="s">
-        <v>3971</v>
+        <v>3966</v>
       </c>
       <c r="D725" s="24" t="s">
-        <v>3984</v>
+        <v>3979</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/oem/heichao/locale/locale-en.xlsx
+++ b/WebRoot/oem/heichao/locale/locale-en.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B30152-D9F2-4E1E-9AD5-FBD79B8B3EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF6A0C3-DE9D-444B-A2C5-67ABF1F73772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4221" uniqueCount="3995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4224" uniqueCount="3998">
   <si>
     <t>myself</t>
   </si>
@@ -14941,184 +14941,196 @@
     <t>Next</t>
   </si>
   <si>
+    <t>module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataDictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primaryDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportModuleData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入模块数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportOrgAndRoleData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入组织数据和角色数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportOrgAndDriverData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入组织数据和驱动数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportProtocolData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入协议数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportAcqUnitData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入采控单元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportDisplayUnitData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入显示单元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportAlarmUnitData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入报警单元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseImportReportUnitData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先导入报表单元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>Data Dictionary</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>Main equipment</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Import the module data first</t>
+  </si>
+  <si>
+    <t>Import your organization data and role data first</t>
+  </si>
+  <si>
+    <t>Import organizational data and driver data first</t>
+  </si>
+  <si>
+    <t>Please import the protocol data first</t>
+  </si>
+  <si>
+    <t>Import the data of the control unit first</t>
+  </si>
+  <si>
+    <t>Please import the display unit data first</t>
+  </si>
+  <si>
+    <t>Please import the alarm unit data first</t>
+  </si>
+  <si>
+    <t>Please import the report unit data first</t>
+  </si>
+  <si>
+    <t>Automated O&amp;M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动运维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构备份与恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Structural backup and recovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存盘周期波动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存盘周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of records</t>
+  </si>
+  <si>
+    <t>The deposit cycle fluctuates</t>
+  </si>
+  <si>
+    <t>Storage period</t>
+  </si>
+  <si>
+    <t>automatedOperationsManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>智能监控系统 V9.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataDictionary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primaryDevice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pleaseImportModuleData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请先导入模块数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pleaseImportOrgAndRoleData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请先导入组织数据和角色数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pleaseImportOrgAndDriverData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请先导入组织数据和驱动数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pleaseImportProtocolData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请先导入协议数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pleaseImportAcqUnitData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请先导入采控单元数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pleaseImportDisplayUnitData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请先导入显示单元数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pleaseImportAlarmUnitData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请先导入报警单元数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pleaseImportReportUnitData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请先导入报表单元数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module</t>
-  </si>
-  <si>
-    <t>Data Dictionary</t>
-  </si>
-  <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>Main equipment</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>Import the module data first</t>
-  </si>
-  <si>
-    <t>Import your organization data and role data first</t>
-  </si>
-  <si>
-    <t>Import organizational data and driver data first</t>
-  </si>
-  <si>
-    <t>Please import the protocol data first</t>
-  </si>
-  <si>
-    <t>Import the data of the control unit first</t>
-  </si>
-  <si>
-    <t>Please import the display unit data first</t>
-  </si>
-  <si>
-    <t>Please import the alarm unit data first</t>
-  </si>
-  <si>
-    <t>Please import the report unit data first</t>
-  </si>
-  <si>
-    <t>Automated O&amp;M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动运维</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构备份与恢复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Structural backup and recovery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存盘周期波动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存盘周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of records</t>
-  </si>
-  <si>
-    <t>The deposit cycle fluctuates</t>
-  </si>
-  <si>
-    <t>Storage period</t>
   </si>
   <si>
     <t>Intelligent Monitoring System V9.7</t>
@@ -17429,10 +17441,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>3941</v>
+        <v>3992</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3990</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17443,10 +17455,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>3991</v>
+        <v>3994</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3992</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -17457,10 +17469,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>3993</v>
+        <v>3996</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>3994</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -22822,10 +22834,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D725"/>
+  <dimension ref="A1:D726"/>
   <sheetViews>
-    <sheetView topLeftCell="A684" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D702" sqref="D702:D704"/>
+    <sheetView topLeftCell="A708" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D733" sqref="D733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -32318,13 +32330,13 @@
         <v>677</v>
       </c>
       <c r="B678" s="4" t="s">
-        <v>3846</v>
+        <v>3989</v>
       </c>
       <c r="C678" s="17" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="D678" s="24" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -32335,10 +32347,10 @@
         <v>3847</v>
       </c>
       <c r="C679" s="17" t="s">
+        <v>3981</v>
+      </c>
+      <c r="D679" s="24" t="s">
         <v>3982</v>
-      </c>
-      <c r="D679" s="24" t="s">
-        <v>3983</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -32657,10 +32669,10 @@
         <v>3892</v>
       </c>
       <c r="C702" s="17" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
       <c r="D702" s="24" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -32671,10 +32683,10 @@
         <v>3893</v>
       </c>
       <c r="C703" s="17" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="D703" s="24" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -32685,10 +32697,10 @@
         <v>3894</v>
       </c>
       <c r="C704" s="17" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="D704" s="24" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -32808,13 +32820,13 @@
         <v>712</v>
       </c>
       <c r="B713" s="4" t="s">
+        <v>3941</v>
+      </c>
+      <c r="C713" s="17" t="s">
         <v>3942</v>
       </c>
-      <c r="C713" s="17" t="s">
-        <v>3943</v>
-      </c>
       <c r="D713" s="24" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -32822,13 +32834,13 @@
         <v>713</v>
       </c>
       <c r="B714" s="4" t="s">
+        <v>3943</v>
+      </c>
+      <c r="C714" s="17" t="s">
         <v>3944</v>
       </c>
-      <c r="C714" s="17" t="s">
-        <v>3945</v>
-      </c>
       <c r="D714" s="24" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -32836,13 +32848,13 @@
         <v>714</v>
       </c>
       <c r="B715" s="4" t="s">
+        <v>3945</v>
+      </c>
+      <c r="C715" s="17" t="s">
         <v>3946</v>
       </c>
-      <c r="C715" s="17" t="s">
-        <v>3947</v>
-      </c>
       <c r="D715" s="24" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -32850,13 +32862,13 @@
         <v>715</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="C716" s="17" t="s">
         <v>3220</v>
       </c>
       <c r="D716" s="24" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -32864,13 +32876,13 @@
         <v>716</v>
       </c>
       <c r="B717" s="4" t="s">
+        <v>3948</v>
+      </c>
+      <c r="C717" s="17" t="s">
         <v>3949</v>
       </c>
-      <c r="C717" s="17" t="s">
-        <v>3950</v>
-      </c>
       <c r="D717" s="24" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -32878,13 +32890,13 @@
         <v>717</v>
       </c>
       <c r="B718" s="4" t="s">
+        <v>3950</v>
+      </c>
+      <c r="C718" s="17" t="s">
         <v>3951</v>
       </c>
-      <c r="C718" s="17" t="s">
-        <v>3952</v>
-      </c>
       <c r="D718" s="24" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -32892,13 +32904,13 @@
         <v>718</v>
       </c>
       <c r="B719" s="4" t="s">
+        <v>3952</v>
+      </c>
+      <c r="C719" s="17" t="s">
         <v>3953</v>
       </c>
-      <c r="C719" s="17" t="s">
-        <v>3954</v>
-      </c>
       <c r="D719" s="24" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -32906,13 +32918,13 @@
         <v>719</v>
       </c>
       <c r="B720" s="4" t="s">
+        <v>3954</v>
+      </c>
+      <c r="C720" s="17" t="s">
         <v>3955</v>
       </c>
-      <c r="C720" s="17" t="s">
-        <v>3956</v>
-      </c>
       <c r="D720" s="24" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -32920,13 +32932,13 @@
         <v>720</v>
       </c>
       <c r="B721" s="4" t="s">
+        <v>3956</v>
+      </c>
+      <c r="C721" s="17" t="s">
         <v>3957</v>
       </c>
-      <c r="C721" s="17" t="s">
-        <v>3958</v>
-      </c>
       <c r="D721" s="24" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -32934,13 +32946,13 @@
         <v>721</v>
       </c>
       <c r="B722" s="4" t="s">
+        <v>3958</v>
+      </c>
+      <c r="C722" s="17" t="s">
         <v>3959</v>
       </c>
-      <c r="C722" s="17" t="s">
-        <v>3960</v>
-      </c>
       <c r="D722" s="24" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -32948,13 +32960,13 @@
         <v>722</v>
       </c>
       <c r="B723" s="4" t="s">
+        <v>3960</v>
+      </c>
+      <c r="C723" s="17" t="s">
         <v>3961</v>
       </c>
-      <c r="C723" s="17" t="s">
-        <v>3962</v>
-      </c>
       <c r="D723" s="24" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -32962,13 +32974,13 @@
         <v>723</v>
       </c>
       <c r="B724" s="4" t="s">
+        <v>3962</v>
+      </c>
+      <c r="C724" s="17" t="s">
         <v>3963</v>
       </c>
-      <c r="C724" s="17" t="s">
-        <v>3964</v>
-      </c>
       <c r="D724" s="24" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -32976,13 +32988,27 @@
         <v>724</v>
       </c>
       <c r="B725" s="4" t="s">
+        <v>3964</v>
+      </c>
+      <c r="C725" s="17" t="s">
         <v>3965</v>
       </c>
-      <c r="C725" s="17" t="s">
-        <v>3966</v>
-      </c>
       <c r="D725" s="24" t="s">
-        <v>3979</v>
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4">
+      <c r="A726" s="14">
+        <v>725</v>
+      </c>
+      <c r="B726" s="4" t="s">
+        <v>3846</v>
+      </c>
+      <c r="C726" s="17" t="s">
+        <v>3990</v>
+      </c>
+      <c r="D726" s="24" t="s">
+        <v>3991</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/oem/heichao/locale/locale-en.xlsx
+++ b/WebRoot/oem/heichao/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF6A0C3-DE9D-444B-A2C5-67ABF1F73772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF815319-02EC-4B94-B41F-3B39956BF1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4224" uniqueCount="3998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4230" uniqueCount="4004">
   <si>
     <t>myself</t>
   </si>
@@ -15127,6 +15127,28 @@
   <si>
     <t>Basic information</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oemConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEM配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collisionDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突的设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEM configuration</t>
+  </si>
+  <si>
+    <t>Conflicting equipment</t>
   </si>
   <si>
     <t>智能监控系统 V9.7</t>
@@ -17441,10 +17463,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>3992</v>
+        <v>3998</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3993</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17455,10 +17477,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>3994</v>
+        <v>4000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3995</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -17469,10 +17491,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>3996</v>
+        <v>4002</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>3997</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -22834,10 +22856,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D726"/>
+  <dimension ref="A1:D728"/>
   <sheetViews>
     <sheetView topLeftCell="A708" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D733" sqref="D733"/>
+      <selection activeCell="D742" sqref="D742"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33009,6 +33031,34 @@
       </c>
       <c r="D726" s="24" t="s">
         <v>3991</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4">
+      <c r="A727" s="14">
+        <v>726</v>
+      </c>
+      <c r="B727" s="4" t="s">
+        <v>3992</v>
+      </c>
+      <c r="C727" s="17" t="s">
+        <v>3993</v>
+      </c>
+      <c r="D727" s="24" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4">
+      <c r="A728" s="14">
+        <v>727</v>
+      </c>
+      <c r="B728" s="4" t="s">
+        <v>3994</v>
+      </c>
+      <c r="C728" s="17" t="s">
+        <v>3995</v>
+      </c>
+      <c r="D728" s="24" t="s">
+        <v>3997</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/oem/heichao/locale/locale-en.xlsx
+++ b/WebRoot/oem/heichao/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF815319-02EC-4B94-B41F-3B39956BF1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092AF60F-8BA6-4B4D-85A9-3403F1CCDF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4230" uniqueCount="4004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4026">
   <si>
     <t>myself</t>
   </si>
@@ -15149,6 +15149,87 @@
   </si>
   <si>
     <t>Conflicting equipment</t>
+  </si>
+  <si>
+    <t>affiliatedOrg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memoryCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalMemoryUsage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcatPhysicalMemory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomcat物理内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVMMemory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVMHeapMemory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM堆内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVMNonHeapMemory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM非堆内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oraclePhysicalMemory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库物理内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory curve</t>
+  </si>
+  <si>
+    <t>Total memory</t>
+  </si>
+  <si>
+    <t>Tomcat physical memory</t>
+  </si>
+  <si>
+    <t>JVM memory</t>
+  </si>
+  <si>
+    <t>JVM heap memory</t>
+  </si>
+  <si>
+    <t>JVM is not heap memory</t>
+  </si>
+  <si>
+    <t>Database physical memory</t>
   </si>
   <si>
     <t>智能监控系统 V9.7</t>
@@ -17463,10 +17544,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>3998</v>
+        <v>4020</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3999</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17477,10 +17558,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>4000</v>
+        <v>4022</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4001</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -17491,10 +17572,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>4002</v>
+        <v>4024</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>4003</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -22856,10 +22937,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D728"/>
+  <dimension ref="A1:D739"/>
   <sheetViews>
-    <sheetView topLeftCell="A708" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D742" sqref="D742"/>
+    <sheetView topLeftCell="A705" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D739" sqref="D739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33060,6 +33141,136 @@
       <c r="D728" s="24" t="s">
         <v>3997</v>
       </c>
+    </row>
+    <row r="729" spans="1:4">
+      <c r="A729" s="14">
+        <v>728</v>
+      </c>
+      <c r="B729" s="4" t="s">
+        <v>3998</v>
+      </c>
+      <c r="C729" s="17" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D729" s="24" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4">
+      <c r="A730" s="14">
+        <v>729</v>
+      </c>
+      <c r="B730" s="4" t="s">
+        <v>3999</v>
+      </c>
+      <c r="C730" s="17" t="s">
+        <v>4000</v>
+      </c>
+      <c r="D730" s="24" t="s">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4">
+      <c r="A731" s="14">
+        <v>730</v>
+      </c>
+      <c r="B731" s="4" t="s">
+        <v>4001</v>
+      </c>
+      <c r="C731" s="17" t="s">
+        <v>4002</v>
+      </c>
+      <c r="D731" s="24" t="s">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4">
+      <c r="A732" s="14">
+        <v>731</v>
+      </c>
+      <c r="B732" s="4" t="s">
+        <v>4003</v>
+      </c>
+      <c r="C732" s="17" t="s">
+        <v>4004</v>
+      </c>
+      <c r="D732" s="24" t="s">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4">
+      <c r="A733" s="14">
+        <v>732</v>
+      </c>
+      <c r="B733" s="4" t="s">
+        <v>4005</v>
+      </c>
+      <c r="C733" s="17" t="s">
+        <v>4006</v>
+      </c>
+      <c r="D733" s="24" t="s">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4">
+      <c r="A734" s="14">
+        <v>733</v>
+      </c>
+      <c r="B734" s="4" t="s">
+        <v>4007</v>
+      </c>
+      <c r="C734" s="17" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D734" s="24" t="s">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4">
+      <c r="A735" s="14">
+        <v>734</v>
+      </c>
+      <c r="B735" s="4" t="s">
+        <v>4009</v>
+      </c>
+      <c r="C735" s="17" t="s">
+        <v>4010</v>
+      </c>
+      <c r="D735" s="24" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4">
+      <c r="A736" s="14">
+        <v>735</v>
+      </c>
+      <c r="B736" s="4" t="s">
+        <v>4011</v>
+      </c>
+      <c r="C736" s="17" t="s">
+        <v>4012</v>
+      </c>
+      <c r="D736" s="24" t="s">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4">
+      <c r="A737" s="14"/>
+      <c r="B737" s="4"/>
+      <c r="C737" s="17"/>
+      <c r="D737" s="24"/>
+    </row>
+    <row r="738" spans="1:4">
+      <c r="A738" s="14"/>
+      <c r="B738" s="4"/>
+      <c r="C738" s="17"/>
+      <c r="D738" s="24"/>
+    </row>
+    <row r="739" spans="1:4">
+      <c r="A739" s="14"/>
+      <c r="B739" s="4"/>
+      <c r="C739" s="17"/>
+      <c r="D739" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -35398,8 +35609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/WebRoot/oem/heichao/locale/locale-en.xlsx
+++ b/WebRoot/oem/heichao/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092AF60F-8BA6-4B4D-85A9-3403F1CCDF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F58756D-0488-45F9-B971-DFE57400CE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4260" uniqueCount="4031">
   <si>
     <t>myself</t>
   </si>
@@ -14941,6 +14941,10 @@
     <t>Next</t>
   </si>
   <si>
+    <t>智能监控系统 V9.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>module</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15232,7 +15236,23 @@
     <t>Database physical memory</t>
   </si>
   <si>
-    <t>智能监控系统 V9.7</t>
+    <t>批量下行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Downlink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downwardCommand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batchDownwardCommand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -17544,10 +17564,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>4020</v>
+        <v>3941</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4021</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17558,10 +17578,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>4022</v>
+        <v>4027</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4023</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -17572,10 +17592,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>4024</v>
+        <v>4029</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>4025</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -22939,8 +22959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
   <dimension ref="A1:D739"/>
   <sheetViews>
-    <sheetView topLeftCell="A705" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D739" sqref="D739"/>
+    <sheetView topLeftCell="A707" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B742" sqref="B742"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -32433,13 +32453,13 @@
         <v>677</v>
       </c>
       <c r="B678" s="4" t="s">
-        <v>3989</v>
+        <v>3990</v>
       </c>
       <c r="C678" s="17" t="s">
+        <v>3981</v>
+      </c>
+      <c r="D678" s="24" t="s">
         <v>3980</v>
-      </c>
-      <c r="D678" s="24" t="s">
-        <v>3979</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -32450,10 +32470,10 @@
         <v>3847</v>
       </c>
       <c r="C679" s="17" t="s">
-        <v>3981</v>
+        <v>3982</v>
       </c>
       <c r="D679" s="24" t="s">
-        <v>3982</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -32772,10 +32792,10 @@
         <v>3892</v>
       </c>
       <c r="C702" s="17" t="s">
-        <v>3983</v>
+        <v>3984</v>
       </c>
       <c r="D702" s="24" t="s">
-        <v>3986</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -32786,10 +32806,10 @@
         <v>3893</v>
       </c>
       <c r="C703" s="17" t="s">
-        <v>3984</v>
+        <v>3985</v>
       </c>
       <c r="D703" s="24" t="s">
-        <v>3987</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -32800,10 +32820,10 @@
         <v>3894</v>
       </c>
       <c r="C704" s="17" t="s">
-        <v>3985</v>
+        <v>3986</v>
       </c>
       <c r="D704" s="24" t="s">
-        <v>3988</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -32923,13 +32943,13 @@
         <v>712</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="C713" s="17" t="s">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="D713" s="24" t="s">
-        <v>3966</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -32937,13 +32957,13 @@
         <v>713</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>3943</v>
+        <v>3944</v>
       </c>
       <c r="C714" s="17" t="s">
-        <v>3944</v>
+        <v>3945</v>
       </c>
       <c r="D714" s="24" t="s">
-        <v>3967</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -32951,13 +32971,13 @@
         <v>714</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>3945</v>
+        <v>3946</v>
       </c>
       <c r="C715" s="17" t="s">
-        <v>3946</v>
+        <v>3947</v>
       </c>
       <c r="D715" s="24" t="s">
-        <v>3968</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -32965,13 +32985,13 @@
         <v>715</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
       <c r="C716" s="17" t="s">
         <v>3220</v>
       </c>
       <c r="D716" s="24" t="s">
-        <v>3969</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -32979,13 +32999,13 @@
         <v>716</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
       <c r="C717" s="17" t="s">
-        <v>3949</v>
+        <v>3950</v>
       </c>
       <c r="D717" s="24" t="s">
-        <v>3970</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -32993,13 +33013,13 @@
         <v>717</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>3950</v>
+        <v>3951</v>
       </c>
       <c r="C718" s="17" t="s">
-        <v>3951</v>
+        <v>3952</v>
       </c>
       <c r="D718" s="24" t="s">
-        <v>3971</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -33007,13 +33027,13 @@
         <v>718</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>3952</v>
+        <v>3953</v>
       </c>
       <c r="C719" s="17" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
       <c r="D719" s="24" t="s">
-        <v>3972</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -33021,13 +33041,13 @@
         <v>719</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>3954</v>
+        <v>3955</v>
       </c>
       <c r="C720" s="17" t="s">
-        <v>3955</v>
+        <v>3956</v>
       </c>
       <c r="D720" s="24" t="s">
-        <v>3973</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -33035,13 +33055,13 @@
         <v>720</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>3956</v>
+        <v>3957</v>
       </c>
       <c r="C721" s="17" t="s">
-        <v>3957</v>
+        <v>3958</v>
       </c>
       <c r="D721" s="24" t="s">
-        <v>3974</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -33049,13 +33069,13 @@
         <v>721</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>3958</v>
+        <v>3959</v>
       </c>
       <c r="C722" s="17" t="s">
-        <v>3959</v>
+        <v>3960</v>
       </c>
       <c r="D722" s="24" t="s">
-        <v>3975</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -33063,13 +33083,13 @@
         <v>722</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>3960</v>
+        <v>3961</v>
       </c>
       <c r="C723" s="17" t="s">
-        <v>3961</v>
+        <v>3962</v>
       </c>
       <c r="D723" s="24" t="s">
-        <v>3976</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -33077,13 +33097,13 @@
         <v>723</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>3962</v>
+        <v>3963</v>
       </c>
       <c r="C724" s="17" t="s">
-        <v>3963</v>
+        <v>3964</v>
       </c>
       <c r="D724" s="24" t="s">
-        <v>3977</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -33091,13 +33111,13 @@
         <v>724</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>3964</v>
+        <v>3965</v>
       </c>
       <c r="C725" s="17" t="s">
-        <v>3965</v>
+        <v>3966</v>
       </c>
       <c r="D725" s="24" t="s">
-        <v>3978</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -33108,10 +33128,10 @@
         <v>3846</v>
       </c>
       <c r="C726" s="17" t="s">
-        <v>3990</v>
+        <v>3991</v>
       </c>
       <c r="D726" s="24" t="s">
-        <v>3991</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -33119,13 +33139,13 @@
         <v>726</v>
       </c>
       <c r="B727" s="4" t="s">
-        <v>3992</v>
+        <v>3993</v>
       </c>
       <c r="C727" s="17" t="s">
-        <v>3993</v>
+        <v>3994</v>
       </c>
       <c r="D727" s="24" t="s">
-        <v>3996</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -33133,13 +33153,13 @@
         <v>727</v>
       </c>
       <c r="B728" s="4" t="s">
-        <v>3994</v>
+        <v>3995</v>
       </c>
       <c r="C728" s="17" t="s">
-        <v>3995</v>
+        <v>3996</v>
       </c>
       <c r="D728" s="24" t="s">
-        <v>3997</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -33147,7 +33167,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>3998</v>
+        <v>3999</v>
       </c>
       <c r="C729" s="17" t="s">
         <v>1116</v>
@@ -33161,13 +33181,13 @@
         <v>729</v>
       </c>
       <c r="B730" s="4" t="s">
-        <v>3999</v>
+        <v>4000</v>
       </c>
       <c r="C730" s="17" t="s">
-        <v>4000</v>
+        <v>4001</v>
       </c>
       <c r="D730" s="24" t="s">
-        <v>4013</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -33175,13 +33195,13 @@
         <v>730</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="C731" s="17" t="s">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="D731" s="24" t="s">
-        <v>4014</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -33189,13 +33209,13 @@
         <v>731</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="C732" s="17" t="s">
-        <v>4004</v>
+        <v>4005</v>
       </c>
       <c r="D732" s="24" t="s">
-        <v>4015</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -33203,13 +33223,13 @@
         <v>732</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>4005</v>
+        <v>4006</v>
       </c>
       <c r="C733" s="17" t="s">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="D733" s="24" t="s">
-        <v>4016</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -33217,13 +33237,13 @@
         <v>733</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C734" s="17" t="s">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="D734" s="24" t="s">
-        <v>4017</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -33231,13 +33251,13 @@
         <v>734</v>
       </c>
       <c r="B735" s="4" t="s">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C735" s="17" t="s">
-        <v>4010</v>
+        <v>4011</v>
       </c>
       <c r="D735" s="24" t="s">
-        <v>4018</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -33245,26 +33265,42 @@
         <v>735</v>
       </c>
       <c r="B736" s="4" t="s">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="C736" s="17" t="s">
-        <v>4012</v>
+        <v>4013</v>
       </c>
       <c r="D736" s="24" t="s">
-        <v>4019</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="737" spans="1:4">
-      <c r="A737" s="14"/>
-      <c r="B737" s="4"/>
-      <c r="C737" s="17"/>
-      <c r="D737" s="24"/>
+      <c r="A737" s="14">
+        <v>736</v>
+      </c>
+      <c r="B737" s="4" t="s">
+        <v>4024</v>
+      </c>
+      <c r="C737" s="17" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D737" s="17" t="s">
+        <v>4022</v>
+      </c>
     </row>
     <row r="738" spans="1:4">
-      <c r="A738" s="14"/>
-      <c r="B738" s="4"/>
-      <c r="C738" s="17"/>
-      <c r="D738" s="24"/>
+      <c r="A738" s="14">
+        <v>737</v>
+      </c>
+      <c r="B738" s="4" t="s">
+        <v>4025</v>
+      </c>
+      <c r="C738" s="17" t="s">
+        <v>4021</v>
+      </c>
+      <c r="D738" s="17" t="s">
+        <v>4023</v>
+      </c>
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="14"/>

--- a/WebRoot/oem/heichao/locale/locale-en.xlsx
+++ b/WebRoot/oem/heichao/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EA499D-24DB-4A67-BA80-C16362D947FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D35D895-FF08-41E0-A267-BEC667246BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4287" uniqueCount="4058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4296" uniqueCount="4067">
   <si>
     <t>myself</t>
   </si>
@@ -15359,6 +15359,42 @@
   </si>
   <si>
     <t>Run status field name association</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgAssociatedInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该组织关联信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The organization associates information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleAssociatedInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该角色关联信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The role is associated with information</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -17674,10 +17710,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>4052</v>
+        <v>4061</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4053</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17688,10 +17724,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>4054</v>
+        <v>4063</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4055</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -17702,10 +17738,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>4056</v>
+        <v>4065</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>4057</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -23069,8 +23105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
   <dimension ref="A1:D761"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C198" sqref="C198"/>
+    <sheetView topLeftCell="A723" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C755" sqref="C755"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33539,22 +33575,46 @@
       </c>
     </row>
     <row r="748" spans="1:4">
-      <c r="A748" s="14"/>
-      <c r="B748" s="4"/>
-      <c r="C748" s="17"/>
-      <c r="D748" s="24"/>
+      <c r="A748" s="14">
+        <v>747</v>
+      </c>
+      <c r="B748" s="4" t="s">
+        <v>4052</v>
+      </c>
+      <c r="C748" s="17" t="s">
+        <v>4053</v>
+      </c>
+      <c r="D748" s="24" t="s">
+        <v>4054</v>
+      </c>
     </row>
     <row r="749" spans="1:4">
-      <c r="A749" s="14"/>
-      <c r="B749" s="4"/>
-      <c r="C749" s="17"/>
-      <c r="D749" s="24"/>
+      <c r="A749" s="14">
+        <v>748</v>
+      </c>
+      <c r="B749" s="4" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C749" s="17" t="s">
+        <v>4056</v>
+      </c>
+      <c r="D749" s="24" t="s">
+        <v>4057</v>
+      </c>
     </row>
     <row r="750" spans="1:4">
-      <c r="A750" s="14"/>
-      <c r="B750" s="4"/>
-      <c r="C750" s="17"/>
-      <c r="D750" s="24"/>
+      <c r="A750" s="14">
+        <v>749</v>
+      </c>
+      <c r="B750" s="4" t="s">
+        <v>4058</v>
+      </c>
+      <c r="C750" s="17" t="s">
+        <v>4059</v>
+      </c>
+      <c r="D750" s="24" t="s">
+        <v>4060</v>
+      </c>
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="14"/>

--- a/WebRoot/oem/heichao/locale/locale-en.xlsx
+++ b/WebRoot/oem/heichao/locale/locale-en.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D35D895-FF08-41E0-A267-BEC667246BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9372770F-BBCC-4BB3-B2AC-5DFE680FED2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4296" uniqueCount="4067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4299" uniqueCount="4070">
   <si>
     <t>myself</t>
   </si>
@@ -15395,6 +15395,18 @@
   </si>
   <si>
     <t>The role is associated with information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag management</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -17710,10 +17722,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>4061</v>
+        <v>4064</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4062</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17724,10 +17736,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>4063</v>
+        <v>4066</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4064</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -17738,10 +17750,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>4065</v>
+        <v>4068</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>4066</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -23106,7 +23118,7 @@
   <dimension ref="A1:D761"/>
   <sheetViews>
     <sheetView topLeftCell="A723" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C755" sqref="C755"/>
+      <selection activeCell="C756" sqref="C756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33617,10 +33629,18 @@
       </c>
     </row>
     <row r="751" spans="1:4">
-      <c r="A751" s="14"/>
-      <c r="B751" s="4"/>
-      <c r="C751" s="17"/>
-      <c r="D751" s="24"/>
+      <c r="A751" s="14">
+        <v>750</v>
+      </c>
+      <c r="B751" s="4" t="s">
+        <v>4061</v>
+      </c>
+      <c r="C751" s="17" t="s">
+        <v>4062</v>
+      </c>
+      <c r="D751" s="24" t="s">
+        <v>4063</v>
+      </c>
     </row>
     <row r="752" spans="1:4">
       <c r="A752" s="14"/>

--- a/WebRoot/oem/heichao/locale/locale-en.xlsx
+++ b/WebRoot/oem/heichao/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9372770F-BBCC-4BB3-B2AC-5DFE680FED2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6A02CB-B416-4DCF-A9F6-A1F51559B81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4299" uniqueCount="4070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4305" uniqueCount="4076">
   <si>
     <t>myself</t>
   </si>
@@ -15407,6 +15407,30 @@
   </si>
   <si>
     <t>Tag management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印通信服务交互日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Print the communication service interaction log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printAdLogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printExceptionLogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印异常信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Print the exception information</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -17722,10 +17746,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>4064</v>
+        <v>4070</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4065</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17736,10 +17760,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>4066</v>
+        <v>4072</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4067</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -17750,10 +17774,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>4068</v>
+        <v>4074</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>4069</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -23115,10 +23139,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D761"/>
+  <dimension ref="A1:D763"/>
   <sheetViews>
-    <sheetView topLeftCell="A723" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C756" sqref="C756"/>
+    <sheetView topLeftCell="A672" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D690" sqref="D690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -32765,13 +32789,13 @@
         <v>688</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>3854</v>
+        <v>4066</v>
       </c>
       <c r="C689" s="17" t="s">
-        <v>3855</v>
-      </c>
-      <c r="D689" s="24" t="s">
-        <v>3910</v>
+        <v>4064</v>
+      </c>
+      <c r="D689" s="26" t="s">
+        <v>4065</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -32779,13 +32803,13 @@
         <v>689</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>3856</v>
+        <v>4067</v>
       </c>
       <c r="C690" s="17" t="s">
-        <v>3857</v>
-      </c>
-      <c r="D690" s="24" t="s">
-        <v>3911</v>
+        <v>4068</v>
+      </c>
+      <c r="D690" s="26" t="s">
+        <v>4069</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -32793,13 +32817,13 @@
         <v>690</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>3858</v>
+        <v>3854</v>
       </c>
       <c r="C691" s="17" t="s">
-        <v>3859</v>
+        <v>3855</v>
       </c>
       <c r="D691" s="24" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -32807,13 +32831,13 @@
         <v>691</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>3860</v>
+        <v>3856</v>
       </c>
       <c r="C692" s="17" t="s">
-        <v>3861</v>
+        <v>3857</v>
       </c>
       <c r="D692" s="24" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -32821,13 +32845,13 @@
         <v>692</v>
       </c>
       <c r="B693" s="4" t="s">
-        <v>3862</v>
+        <v>3858</v>
       </c>
       <c r="C693" s="17" t="s">
-        <v>3863</v>
+        <v>3859</v>
       </c>
       <c r="D693" s="24" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -32835,13 +32859,13 @@
         <v>693</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>3864</v>
+        <v>3860</v>
       </c>
       <c r="C694" s="17" t="s">
-        <v>3865</v>
+        <v>3861</v>
       </c>
       <c r="D694" s="24" t="s">
-        <v>3915</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -32849,13 +32873,13 @@
         <v>694</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>3866</v>
+        <v>3862</v>
       </c>
       <c r="C695" s="17" t="s">
-        <v>3867</v>
+        <v>3863</v>
       </c>
       <c r="D695" s="24" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -32863,13 +32887,13 @@
         <v>695</v>
       </c>
       <c r="B696" s="4" t="s">
-        <v>3868</v>
+        <v>3864</v>
       </c>
       <c r="C696" s="17" t="s">
-        <v>3869</v>
+        <v>3865</v>
       </c>
       <c r="D696" s="24" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -32877,13 +32901,13 @@
         <v>696</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>3870</v>
+        <v>3866</v>
       </c>
       <c r="C697" s="17" t="s">
-        <v>3871</v>
+        <v>3867</v>
       </c>
       <c r="D697" s="24" t="s">
-        <v>3918</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -32891,13 +32915,13 @@
         <v>697</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>3872</v>
+        <v>3868</v>
       </c>
       <c r="C698" s="17" t="s">
-        <v>3873</v>
+        <v>3869</v>
       </c>
       <c r="D698" s="24" t="s">
-        <v>3919</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -32905,13 +32929,13 @@
         <v>698</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>3874</v>
+        <v>3870</v>
       </c>
       <c r="C699" s="17" t="s">
-        <v>3875</v>
+        <v>3871</v>
       </c>
       <c r="D699" s="24" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -32919,13 +32943,13 @@
         <v>699</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>3876</v>
+        <v>3872</v>
       </c>
       <c r="C700" s="17" t="s">
-        <v>3877</v>
+        <v>3873</v>
       </c>
       <c r="D700" s="24" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -32933,13 +32957,13 @@
         <v>700</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>3878</v>
+        <v>3874</v>
       </c>
       <c r="C701" s="17" t="s">
-        <v>3879</v>
+        <v>3875</v>
       </c>
       <c r="D701" s="24" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -32947,13 +32971,13 @@
         <v>701</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>3880</v>
+        <v>3876</v>
       </c>
       <c r="C702" s="17" t="s">
-        <v>3881</v>
+        <v>3877</v>
       </c>
       <c r="D702" s="24" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -32961,13 +32985,13 @@
         <v>702</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>3882</v>
+        <v>3878</v>
       </c>
       <c r="C703" s="17" t="s">
-        <v>3883</v>
+        <v>3879</v>
       </c>
       <c r="D703" s="24" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -32975,13 +32999,13 @@
         <v>703</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>3884</v>
+        <v>3880</v>
       </c>
       <c r="C704" s="17" t="s">
-        <v>3975</v>
+        <v>3881</v>
       </c>
       <c r="D704" s="24" t="s">
-        <v>3978</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -32989,13 +33013,13 @@
         <v>704</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>3885</v>
+        <v>3882</v>
       </c>
       <c r="C705" s="17" t="s">
-        <v>3976</v>
+        <v>3883</v>
       </c>
       <c r="D705" s="24" t="s">
-        <v>3979</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -33003,13 +33027,13 @@
         <v>705</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>3886</v>
+        <v>3884</v>
       </c>
       <c r="C706" s="17" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
       <c r="D706" s="24" t="s">
-        <v>3980</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -33017,13 +33041,13 @@
         <v>706</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>3887</v>
+        <v>3885</v>
       </c>
       <c r="C707" s="17" t="s">
-        <v>3888</v>
+        <v>3976</v>
       </c>
       <c r="D707" s="24" t="s">
-        <v>3925</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -33031,13 +33055,13 @@
         <v>707</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>3889</v>
+        <v>3886</v>
       </c>
       <c r="C708" s="17" t="s">
-        <v>3890</v>
+        <v>3977</v>
       </c>
       <c r="D708" s="24" t="s">
-        <v>3926</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -33045,13 +33069,13 @@
         <v>708</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>3891</v>
+        <v>3887</v>
       </c>
       <c r="C709" s="17" t="s">
-        <v>3892</v>
+        <v>3888</v>
       </c>
       <c r="D709" s="24" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -33059,13 +33083,13 @@
         <v>709</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>3893</v>
+        <v>3889</v>
       </c>
       <c r="C710" s="17" t="s">
-        <v>3894</v>
+        <v>3890</v>
       </c>
       <c r="D710" s="24" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -33073,13 +33097,13 @@
         <v>710</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>3895</v>
+        <v>3891</v>
       </c>
       <c r="C711" s="17" t="s">
-        <v>3896</v>
+        <v>3892</v>
       </c>
       <c r="D711" s="24" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -33087,13 +33111,13 @@
         <v>711</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>3897</v>
+        <v>3893</v>
       </c>
       <c r="C712" s="17" t="s">
-        <v>3898</v>
+        <v>3894</v>
       </c>
       <c r="D712" s="24" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -33101,13 +33125,13 @@
         <v>712</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>3899</v>
+        <v>3895</v>
       </c>
       <c r="C713" s="17" t="s">
-        <v>3900</v>
+        <v>3896</v>
       </c>
       <c r="D713" s="24" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -33115,13 +33139,13 @@
         <v>713</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>3901</v>
+        <v>3897</v>
       </c>
       <c r="C714" s="17" t="s">
-        <v>3902</v>
+        <v>3898</v>
       </c>
       <c r="D714" s="24" t="s">
-        <v>3932</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -33129,13 +33153,13 @@
         <v>714</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>3933</v>
+        <v>3899</v>
       </c>
       <c r="C715" s="17" t="s">
-        <v>3934</v>
+        <v>3900</v>
       </c>
       <c r="D715" s="24" t="s">
-        <v>3958</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -33143,13 +33167,13 @@
         <v>715</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>3935</v>
+        <v>3901</v>
       </c>
       <c r="C716" s="17" t="s">
-        <v>3936</v>
+        <v>3902</v>
       </c>
       <c r="D716" s="24" t="s">
-        <v>3959</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -33157,13 +33181,13 @@
         <v>716</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>3937</v>
+        <v>3933</v>
       </c>
       <c r="C717" s="17" t="s">
-        <v>3938</v>
+        <v>3934</v>
       </c>
       <c r="D717" s="24" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -33171,13 +33195,13 @@
         <v>717</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>3939</v>
+        <v>3935</v>
       </c>
       <c r="C718" s="17" t="s">
-        <v>3212</v>
+        <v>3936</v>
       </c>
       <c r="D718" s="24" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -33185,13 +33209,13 @@
         <v>718</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>3940</v>
+        <v>3937</v>
       </c>
       <c r="C719" s="17" t="s">
-        <v>3941</v>
+        <v>3938</v>
       </c>
       <c r="D719" s="24" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -33199,13 +33223,13 @@
         <v>719</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>3942</v>
+        <v>3939</v>
       </c>
       <c r="C720" s="17" t="s">
-        <v>3943</v>
+        <v>3212</v>
       </c>
       <c r="D720" s="24" t="s">
-        <v>3963</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -33213,13 +33237,13 @@
         <v>720</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>3944</v>
+        <v>3940</v>
       </c>
       <c r="C721" s="17" t="s">
-        <v>3945</v>
+        <v>3941</v>
       </c>
       <c r="D721" s="24" t="s">
-        <v>3964</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -33227,13 +33251,13 @@
         <v>721</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>3946</v>
+        <v>3942</v>
       </c>
       <c r="C722" s="17" t="s">
-        <v>3947</v>
+        <v>3943</v>
       </c>
       <c r="D722" s="24" t="s">
-        <v>3965</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -33241,13 +33265,13 @@
         <v>722</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>3948</v>
+        <v>3944</v>
       </c>
       <c r="C723" s="17" t="s">
-        <v>3949</v>
+        <v>3945</v>
       </c>
       <c r="D723" s="24" t="s">
-        <v>3966</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -33255,13 +33279,13 @@
         <v>723</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>3950</v>
+        <v>3946</v>
       </c>
       <c r="C724" s="17" t="s">
-        <v>3951</v>
+        <v>3947</v>
       </c>
       <c r="D724" s="24" t="s">
-        <v>3967</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -33269,13 +33293,13 @@
         <v>724</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>3952</v>
+        <v>3948</v>
       </c>
       <c r="C725" s="17" t="s">
-        <v>3953</v>
+        <v>3949</v>
       </c>
       <c r="D725" s="24" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -33283,13 +33307,13 @@
         <v>725</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>3954</v>
+        <v>3950</v>
       </c>
       <c r="C726" s="17" t="s">
-        <v>3955</v>
+        <v>3951</v>
       </c>
       <c r="D726" s="24" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -33297,13 +33321,13 @@
         <v>726</v>
       </c>
       <c r="B727" s="4" t="s">
-        <v>3956</v>
+        <v>3952</v>
       </c>
       <c r="C727" s="17" t="s">
-        <v>3957</v>
+        <v>3953</v>
       </c>
       <c r="D727" s="24" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -33311,13 +33335,13 @@
         <v>727</v>
       </c>
       <c r="B728" s="4" t="s">
-        <v>3838</v>
+        <v>3954</v>
       </c>
       <c r="C728" s="17" t="s">
-        <v>3982</v>
+        <v>3955</v>
       </c>
       <c r="D728" s="24" t="s">
-        <v>3983</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -33325,13 +33349,13 @@
         <v>728</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>3984</v>
+        <v>3956</v>
       </c>
       <c r="C729" s="17" t="s">
-        <v>3985</v>
+        <v>3957</v>
       </c>
       <c r="D729" s="24" t="s">
-        <v>3988</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -33339,13 +33363,13 @@
         <v>729</v>
       </c>
       <c r="B730" s="4" t="s">
-        <v>3986</v>
+        <v>3838</v>
       </c>
       <c r="C730" s="17" t="s">
-        <v>3987</v>
+        <v>3982</v>
       </c>
       <c r="D730" s="24" t="s">
-        <v>3989</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -33353,13 +33377,13 @@
         <v>730</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>3990</v>
+        <v>3984</v>
       </c>
       <c r="C731" s="17" t="s">
-        <v>1116</v>
+        <v>3985</v>
       </c>
       <c r="D731" s="24" t="s">
-        <v>3314</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -33367,13 +33391,13 @@
         <v>731</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>3991</v>
+        <v>3986</v>
       </c>
       <c r="C732" s="17" t="s">
-        <v>3992</v>
+        <v>3987</v>
       </c>
       <c r="D732" s="24" t="s">
-        <v>4005</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -33381,13 +33405,13 @@
         <v>732</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>3993</v>
+        <v>3990</v>
       </c>
       <c r="C733" s="17" t="s">
-        <v>3994</v>
+        <v>1116</v>
       </c>
       <c r="D733" s="24" t="s">
-        <v>4006</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -33395,13 +33419,13 @@
         <v>733</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>3995</v>
+        <v>3991</v>
       </c>
       <c r="C734" s="17" t="s">
-        <v>3996</v>
+        <v>3992</v>
       </c>
       <c r="D734" s="24" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -33409,13 +33433,13 @@
         <v>734</v>
       </c>
       <c r="B735" s="4" t="s">
-        <v>3997</v>
+        <v>3993</v>
       </c>
       <c r="C735" s="17" t="s">
-        <v>3998</v>
+        <v>3994</v>
       </c>
       <c r="D735" s="24" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -33423,13 +33447,13 @@
         <v>735</v>
       </c>
       <c r="B736" s="4" t="s">
-        <v>3999</v>
+        <v>3995</v>
       </c>
       <c r="C736" s="17" t="s">
-        <v>4000</v>
+        <v>3996</v>
       </c>
       <c r="D736" s="24" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -33437,13 +33461,13 @@
         <v>736</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>4001</v>
+        <v>3997</v>
       </c>
       <c r="C737" s="17" t="s">
-        <v>4002</v>
+        <v>3998</v>
       </c>
       <c r="D737" s="24" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -33451,13 +33475,13 @@
         <v>737</v>
       </c>
       <c r="B738" s="4" t="s">
-        <v>4003</v>
+        <v>3999</v>
       </c>
       <c r="C738" s="17" t="s">
-        <v>4004</v>
+        <v>4000</v>
       </c>
       <c r="D738" s="24" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -33465,13 +33489,13 @@
         <v>738</v>
       </c>
       <c r="B739" s="4" t="s">
-        <v>4015</v>
+        <v>4001</v>
       </c>
       <c r="C739" s="17" t="s">
-        <v>2029</v>
-      </c>
-      <c r="D739" s="17" t="s">
-        <v>4013</v>
+        <v>4002</v>
+      </c>
+      <c r="D739" s="24" t="s">
+        <v>4010</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -33479,13 +33503,13 @@
         <v>739</v>
       </c>
       <c r="B740" s="4" t="s">
-        <v>4016</v>
+        <v>4003</v>
       </c>
       <c r="C740" s="17" t="s">
-        <v>4012</v>
-      </c>
-      <c r="D740" s="17" t="s">
-        <v>4014</v>
+        <v>4004</v>
+      </c>
+      <c r="D740" s="24" t="s">
+        <v>4011</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -33493,13 +33517,13 @@
         <v>740</v>
       </c>
       <c r="B741" s="4" t="s">
-        <v>4020</v>
+        <v>4015</v>
       </c>
       <c r="C741" s="17" t="s">
-        <v>4021</v>
-      </c>
-      <c r="D741" s="24" t="s">
-        <v>4022</v>
+        <v>2029</v>
+      </c>
+      <c r="D741" s="17" t="s">
+        <v>4013</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -33507,13 +33531,13 @@
         <v>741</v>
       </c>
       <c r="B742" s="4" t="s">
-        <v>4028</v>
+        <v>4016</v>
       </c>
       <c r="C742" s="17" t="s">
-        <v>4029</v>
-      </c>
-      <c r="D742" s="24" t="s">
-        <v>4030</v>
+        <v>4012</v>
+      </c>
+      <c r="D742" s="17" t="s">
+        <v>4014</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -33521,13 +33545,13 @@
         <v>742</v>
       </c>
       <c r="B743" s="4" t="s">
-        <v>4033</v>
+        <v>4020</v>
       </c>
       <c r="C743" s="17" t="s">
-        <v>4031</v>
+        <v>4021</v>
       </c>
       <c r="D743" s="24" t="s">
-        <v>4032</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -33535,13 +33559,13 @@
         <v>743</v>
       </c>
       <c r="B744" s="4" t="s">
-        <v>4042</v>
+        <v>4028</v>
       </c>
       <c r="C744" s="17" t="s">
-        <v>4034</v>
+        <v>4029</v>
       </c>
       <c r="D744" s="24" t="s">
-        <v>4035</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -33549,13 +33573,13 @@
         <v>744</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>4038</v>
+        <v>4033</v>
       </c>
       <c r="C745" s="17" t="s">
-        <v>4036</v>
+        <v>4031</v>
       </c>
       <c r="D745" s="24" t="s">
-        <v>4037</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -33563,13 +33587,13 @@
         <v>745</v>
       </c>
       <c r="B746" s="4" t="s">
-        <v>4039</v>
+        <v>4042</v>
       </c>
       <c r="C746" s="17" t="s">
-        <v>4040</v>
+        <v>4034</v>
       </c>
       <c r="D746" s="24" t="s">
-        <v>4041</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -33577,13 +33601,13 @@
         <v>746</v>
       </c>
       <c r="B747" s="4" t="s">
-        <v>4047</v>
+        <v>4038</v>
       </c>
       <c r="C747" s="17" t="s">
-        <v>4045</v>
+        <v>4036</v>
       </c>
       <c r="D747" s="24" t="s">
-        <v>4046</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -33591,13 +33615,13 @@
         <v>747</v>
       </c>
       <c r="B748" s="4" t="s">
-        <v>4052</v>
+        <v>4039</v>
       </c>
       <c r="C748" s="17" t="s">
-        <v>4053</v>
+        <v>4040</v>
       </c>
       <c r="D748" s="24" t="s">
-        <v>4054</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -33605,13 +33629,13 @@
         <v>748</v>
       </c>
       <c r="B749" s="4" t="s">
-        <v>4055</v>
+        <v>4047</v>
       </c>
       <c r="C749" s="17" t="s">
-        <v>4056</v>
+        <v>4045</v>
       </c>
       <c r="D749" s="24" t="s">
-        <v>4057</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -33619,13 +33643,13 @@
         <v>749</v>
       </c>
       <c r="B750" s="4" t="s">
-        <v>4058</v>
+        <v>4052</v>
       </c>
       <c r="C750" s="17" t="s">
-        <v>4059</v>
+        <v>4053</v>
       </c>
       <c r="D750" s="24" t="s">
-        <v>4060</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -33633,26 +33657,42 @@
         <v>750</v>
       </c>
       <c r="B751" s="4" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C751" s="17" t="s">
+        <v>4056</v>
+      </c>
+      <c r="D751" s="24" t="s">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4">
+      <c r="A752" s="14">
+        <v>751</v>
+      </c>
+      <c r="B752" s="4" t="s">
+        <v>4058</v>
+      </c>
+      <c r="C752" s="17" t="s">
+        <v>4059</v>
+      </c>
+      <c r="D752" s="24" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4">
+      <c r="A753" s="14">
+        <v>752</v>
+      </c>
+      <c r="B753" s="4" t="s">
         <v>4061</v>
       </c>
-      <c r="C751" s="17" t="s">
+      <c r="C753" s="17" t="s">
         <v>4062</v>
       </c>
-      <c r="D751" s="24" t="s">
+      <c r="D753" s="24" t="s">
         <v>4063</v>
       </c>
-    </row>
-    <row r="752" spans="1:4">
-      <c r="A752" s="14"/>
-      <c r="B752" s="4"/>
-      <c r="C752" s="17"/>
-      <c r="D752" s="24"/>
-    </row>
-    <row r="753" spans="1:4">
-      <c r="A753" s="14"/>
-      <c r="B753" s="4"/>
-      <c r="C753" s="17"/>
-      <c r="D753" s="24"/>
     </row>
     <row r="754" spans="1:4">
       <c r="A754" s="14"/>
@@ -33701,6 +33741,18 @@
       <c r="B761" s="4"/>
       <c r="C761" s="17"/>
       <c r="D761" s="24"/>
+    </row>
+    <row r="762" spans="1:4">
+      <c r="A762" s="14"/>
+      <c r="B762" s="4"/>
+      <c r="C762" s="17"/>
+      <c r="D762" s="24"/>
+    </row>
+    <row r="763" spans="1:4">
+      <c r="A763" s="14"/>
+      <c r="B763" s="4"/>
+      <c r="C763" s="17"/>
+      <c r="D763" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/heichao/locale/locale-en.xlsx
+++ b/WebRoot/oem/heichao/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6A02CB-B416-4DCF-A9F6-A1F51559B81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFE74A7-5B1A-4EE8-BA02-6BDA7F2890A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14621,10 +14621,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打印日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>exportDataLimits</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14839,9 +14835,6 @@
     <t>Simulate data sending cycles</t>
   </si>
   <si>
-    <t>Print logs</t>
-  </si>
-  <si>
     <t>Export data limits</t>
   </si>
   <si>
@@ -15410,14 +15403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打印通信服务交互日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Print the communication service interaction log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>printAdLogs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15426,12 +15411,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打印异常信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Print the exception information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>打印调试日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印交互日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印异常日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Print the debug log</t>
+  </si>
+  <si>
+    <t>Print the interaction log</t>
+  </si>
+  <si>
+    <t>Print the exception log</t>
   </si>
   <si>
     <t>智能监控系统 V9.7</t>
@@ -23142,7 +23140,7 @@
   <dimension ref="A1:D763"/>
   <sheetViews>
     <sheetView topLeftCell="A672" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D690" sqref="D690"/>
+      <selection activeCell="D688" sqref="D688:D690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25876,10 +25874,10 @@
         <v>183</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
       <c r="D195" s="24" t="s">
-        <v>4018</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -25901,13 +25899,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>4043</v>
+        <v>4041</v>
       </c>
       <c r="D197" s="24" t="s">
-        <v>4044</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -25918,10 +25916,10 @@
         <v>185</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>4050</v>
+        <v>4048</v>
       </c>
       <c r="D198" s="24" t="s">
-        <v>4051</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -26380,10 +26378,10 @@
         <v>231</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
       <c r="D231" s="24" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -26391,13 +26389,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>4023</v>
+        <v>4021</v>
       </c>
       <c r="C232" s="17" t="s">
-        <v>4024</v>
+        <v>4022</v>
       </c>
       <c r="D232" s="24" t="s">
-        <v>4027</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -30790,10 +30788,10 @@
         <v>484</v>
       </c>
       <c r="C546" s="8" t="s">
-        <v>4048</v>
+        <v>4046</v>
       </c>
       <c r="D546" s="24" t="s">
-        <v>4049</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -32663,13 +32661,13 @@
         <v>679</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>3981</v>
+        <v>3979</v>
       </c>
       <c r="C680" s="17" t="s">
-        <v>3972</v>
+        <v>3970</v>
       </c>
       <c r="D680" s="24" t="s">
-        <v>3971</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -32680,10 +32678,10 @@
         <v>3839</v>
       </c>
       <c r="C681" s="17" t="s">
-        <v>3973</v>
+        <v>3971</v>
       </c>
       <c r="D681" s="24" t="s">
-        <v>3974</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -32697,7 +32695,7 @@
         <v>3841</v>
       </c>
       <c r="D682" s="24" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -32711,7 +32709,7 @@
         <v>3843</v>
       </c>
       <c r="D683" s="24" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -32725,7 +32723,7 @@
         <v>3845</v>
       </c>
       <c r="D684" s="24" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -32739,7 +32737,7 @@
         <v>3847</v>
       </c>
       <c r="D685" s="24" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -32753,7 +32751,7 @@
         <v>3849</v>
       </c>
       <c r="D686" s="24" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -32767,7 +32765,7 @@
         <v>3851</v>
       </c>
       <c r="D687" s="24" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -32778,10 +32776,10 @@
         <v>3852</v>
       </c>
       <c r="C688" s="17" t="s">
-        <v>3853</v>
+        <v>4064</v>
       </c>
       <c r="D688" s="24" t="s">
-        <v>3909</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -32789,13 +32787,13 @@
         <v>688</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>4066</v>
+        <v>4062</v>
       </c>
       <c r="C689" s="17" t="s">
-        <v>4064</v>
+        <v>4065</v>
       </c>
       <c r="D689" s="26" t="s">
-        <v>4065</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -32803,10 +32801,10 @@
         <v>689</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>4067</v>
+        <v>4063</v>
       </c>
       <c r="C690" s="17" t="s">
-        <v>4068</v>
+        <v>4066</v>
       </c>
       <c r="D690" s="26" t="s">
         <v>4069</v>
@@ -32817,13 +32815,13 @@
         <v>690</v>
       </c>
       <c r="B691" s="4" t="s">
+        <v>3853</v>
+      </c>
+      <c r="C691" s="17" t="s">
         <v>3854</v>
       </c>
-      <c r="C691" s="17" t="s">
-        <v>3855</v>
-      </c>
       <c r="D691" s="24" t="s">
-        <v>3910</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -32831,13 +32829,13 @@
         <v>691</v>
       </c>
       <c r="B692" s="4" t="s">
+        <v>3855</v>
+      </c>
+      <c r="C692" s="17" t="s">
         <v>3856</v>
       </c>
-      <c r="C692" s="17" t="s">
-        <v>3857</v>
-      </c>
       <c r="D692" s="24" t="s">
-        <v>3911</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -32845,13 +32843,13 @@
         <v>692</v>
       </c>
       <c r="B693" s="4" t="s">
+        <v>3857</v>
+      </c>
+      <c r="C693" s="17" t="s">
         <v>3858</v>
       </c>
-      <c r="C693" s="17" t="s">
-        <v>3859</v>
-      </c>
       <c r="D693" s="24" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -32859,13 +32857,13 @@
         <v>693</v>
       </c>
       <c r="B694" s="4" t="s">
+        <v>3859</v>
+      </c>
+      <c r="C694" s="17" t="s">
         <v>3860</v>
       </c>
-      <c r="C694" s="17" t="s">
-        <v>3861</v>
-      </c>
       <c r="D694" s="24" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -32873,13 +32871,13 @@
         <v>694</v>
       </c>
       <c r="B695" s="4" t="s">
+        <v>3861</v>
+      </c>
+      <c r="C695" s="17" t="s">
         <v>3862</v>
       </c>
-      <c r="C695" s="17" t="s">
-        <v>3863</v>
-      </c>
       <c r="D695" s="24" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -32887,13 +32885,13 @@
         <v>695</v>
       </c>
       <c r="B696" s="4" t="s">
+        <v>3863</v>
+      </c>
+      <c r="C696" s="17" t="s">
         <v>3864</v>
       </c>
-      <c r="C696" s="17" t="s">
-        <v>3865</v>
-      </c>
       <c r="D696" s="24" t="s">
-        <v>3915</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -32901,13 +32899,13 @@
         <v>696</v>
       </c>
       <c r="B697" s="4" t="s">
+        <v>3865</v>
+      </c>
+      <c r="C697" s="17" t="s">
         <v>3866</v>
       </c>
-      <c r="C697" s="17" t="s">
-        <v>3867</v>
-      </c>
       <c r="D697" s="24" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -32915,13 +32913,13 @@
         <v>697</v>
       </c>
       <c r="B698" s="4" t="s">
+        <v>3867</v>
+      </c>
+      <c r="C698" s="17" t="s">
         <v>3868</v>
       </c>
-      <c r="C698" s="17" t="s">
-        <v>3869</v>
-      </c>
       <c r="D698" s="24" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -32929,13 +32927,13 @@
         <v>698</v>
       </c>
       <c r="B699" s="4" t="s">
+        <v>3869</v>
+      </c>
+      <c r="C699" s="17" t="s">
         <v>3870</v>
       </c>
-      <c r="C699" s="17" t="s">
-        <v>3871</v>
-      </c>
       <c r="D699" s="24" t="s">
-        <v>3918</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -32943,13 +32941,13 @@
         <v>699</v>
       </c>
       <c r="B700" s="4" t="s">
+        <v>3871</v>
+      </c>
+      <c r="C700" s="17" t="s">
         <v>3872</v>
       </c>
-      <c r="C700" s="17" t="s">
-        <v>3873</v>
-      </c>
       <c r="D700" s="24" t="s">
-        <v>3919</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -32957,13 +32955,13 @@
         <v>700</v>
       </c>
       <c r="B701" s="4" t="s">
+        <v>3873</v>
+      </c>
+      <c r="C701" s="17" t="s">
         <v>3874</v>
       </c>
-      <c r="C701" s="17" t="s">
-        <v>3875</v>
-      </c>
       <c r="D701" s="24" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -32971,13 +32969,13 @@
         <v>701</v>
       </c>
       <c r="B702" s="4" t="s">
+        <v>3875</v>
+      </c>
+      <c r="C702" s="17" t="s">
         <v>3876</v>
       </c>
-      <c r="C702" s="17" t="s">
-        <v>3877</v>
-      </c>
       <c r="D702" s="24" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -32985,13 +32983,13 @@
         <v>702</v>
       </c>
       <c r="B703" s="4" t="s">
+        <v>3877</v>
+      </c>
+      <c r="C703" s="17" t="s">
         <v>3878</v>
       </c>
-      <c r="C703" s="17" t="s">
-        <v>3879</v>
-      </c>
       <c r="D703" s="24" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -32999,13 +32997,13 @@
         <v>703</v>
       </c>
       <c r="B704" s="4" t="s">
+        <v>3879</v>
+      </c>
+      <c r="C704" s="17" t="s">
         <v>3880</v>
       </c>
-      <c r="C704" s="17" t="s">
-        <v>3881</v>
-      </c>
       <c r="D704" s="24" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -33013,13 +33011,13 @@
         <v>704</v>
       </c>
       <c r="B705" s="4" t="s">
+        <v>3881</v>
+      </c>
+      <c r="C705" s="17" t="s">
         <v>3882</v>
       </c>
-      <c r="C705" s="17" t="s">
-        <v>3883</v>
-      </c>
       <c r="D705" s="24" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -33027,13 +33025,13 @@
         <v>705</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="C706" s="17" t="s">
-        <v>3975</v>
+        <v>3973</v>
       </c>
       <c r="D706" s="24" t="s">
-        <v>3978</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -33041,13 +33039,13 @@
         <v>706</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="C707" s="17" t="s">
-        <v>3976</v>
+        <v>3974</v>
       </c>
       <c r="D707" s="24" t="s">
-        <v>3979</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -33055,13 +33053,13 @@
         <v>707</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="C708" s="17" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
       <c r="D708" s="24" t="s">
-        <v>3980</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -33069,13 +33067,13 @@
         <v>708</v>
       </c>
       <c r="B709" s="4" t="s">
+        <v>3886</v>
+      </c>
+      <c r="C709" s="17" t="s">
         <v>3887</v>
       </c>
-      <c r="C709" s="17" t="s">
-        <v>3888</v>
-      </c>
       <c r="D709" s="24" t="s">
-        <v>3925</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -33083,13 +33081,13 @@
         <v>709</v>
       </c>
       <c r="B710" s="4" t="s">
+        <v>3888</v>
+      </c>
+      <c r="C710" s="17" t="s">
         <v>3889</v>
       </c>
-      <c r="C710" s="17" t="s">
-        <v>3890</v>
-      </c>
       <c r="D710" s="24" t="s">
-        <v>3926</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -33097,13 +33095,13 @@
         <v>710</v>
       </c>
       <c r="B711" s="4" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C711" s="17" t="s">
         <v>3891</v>
       </c>
-      <c r="C711" s="17" t="s">
-        <v>3892</v>
-      </c>
       <c r="D711" s="24" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -33111,13 +33109,13 @@
         <v>711</v>
       </c>
       <c r="B712" s="4" t="s">
+        <v>3892</v>
+      </c>
+      <c r="C712" s="17" t="s">
         <v>3893</v>
       </c>
-      <c r="C712" s="17" t="s">
-        <v>3894</v>
-      </c>
       <c r="D712" s="24" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -33125,13 +33123,13 @@
         <v>712</v>
       </c>
       <c r="B713" s="4" t="s">
+        <v>3894</v>
+      </c>
+      <c r="C713" s="17" t="s">
         <v>3895</v>
       </c>
-      <c r="C713" s="17" t="s">
-        <v>3896</v>
-      </c>
       <c r="D713" s="24" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -33139,13 +33137,13 @@
         <v>713</v>
       </c>
       <c r="B714" s="4" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C714" s="17" t="s">
         <v>3897</v>
       </c>
-      <c r="C714" s="17" t="s">
-        <v>3898</v>
-      </c>
       <c r="D714" s="24" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -33153,13 +33151,13 @@
         <v>714</v>
       </c>
       <c r="B715" s="4" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C715" s="17" t="s">
         <v>3899</v>
       </c>
-      <c r="C715" s="17" t="s">
-        <v>3900</v>
-      </c>
       <c r="D715" s="24" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -33167,13 +33165,13 @@
         <v>715</v>
       </c>
       <c r="B716" s="4" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C716" s="17" t="s">
         <v>3901</v>
       </c>
-      <c r="C716" s="17" t="s">
-        <v>3902</v>
-      </c>
       <c r="D716" s="24" t="s">
-        <v>3932</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -33181,13 +33179,13 @@
         <v>716</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
       <c r="C717" s="17" t="s">
-        <v>3934</v>
+        <v>3932</v>
       </c>
       <c r="D717" s="24" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -33195,13 +33193,13 @@
         <v>717</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
       <c r="C718" s="17" t="s">
-        <v>3936</v>
+        <v>3934</v>
       </c>
       <c r="D718" s="24" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -33209,13 +33207,13 @@
         <v>718</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>3937</v>
+        <v>3935</v>
       </c>
       <c r="C719" s="17" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
       <c r="D719" s="24" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -33223,13 +33221,13 @@
         <v>719</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>3939</v>
+        <v>3937</v>
       </c>
       <c r="C720" s="17" t="s">
         <v>3212</v>
       </c>
       <c r="D720" s="24" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -33237,13 +33235,13 @@
         <v>720</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>3940</v>
+        <v>3938</v>
       </c>
       <c r="C721" s="17" t="s">
-        <v>3941</v>
+        <v>3939</v>
       </c>
       <c r="D721" s="24" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -33251,13 +33249,13 @@
         <v>721</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>3942</v>
+        <v>3940</v>
       </c>
       <c r="C722" s="17" t="s">
-        <v>3943</v>
+        <v>3941</v>
       </c>
       <c r="D722" s="24" t="s">
-        <v>3963</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -33265,13 +33263,13 @@
         <v>722</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>3944</v>
+        <v>3942</v>
       </c>
       <c r="C723" s="17" t="s">
-        <v>3945</v>
+        <v>3943</v>
       </c>
       <c r="D723" s="24" t="s">
-        <v>3964</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -33279,13 +33277,13 @@
         <v>723</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>3946</v>
+        <v>3944</v>
       </c>
       <c r="C724" s="17" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="D724" s="24" t="s">
-        <v>3965</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -33293,13 +33291,13 @@
         <v>724</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>3948</v>
+        <v>3946</v>
       </c>
       <c r="C725" s="17" t="s">
-        <v>3949</v>
+        <v>3947</v>
       </c>
       <c r="D725" s="24" t="s">
-        <v>3966</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -33307,13 +33305,13 @@
         <v>725</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>3950</v>
+        <v>3948</v>
       </c>
       <c r="C726" s="17" t="s">
-        <v>3951</v>
+        <v>3949</v>
       </c>
       <c r="D726" s="24" t="s">
-        <v>3967</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -33321,13 +33319,13 @@
         <v>726</v>
       </c>
       <c r="B727" s="4" t="s">
-        <v>3952</v>
+        <v>3950</v>
       </c>
       <c r="C727" s="17" t="s">
-        <v>3953</v>
+        <v>3951</v>
       </c>
       <c r="D727" s="24" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -33335,13 +33333,13 @@
         <v>727</v>
       </c>
       <c r="B728" s="4" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="C728" s="17" t="s">
-        <v>3955</v>
+        <v>3953</v>
       </c>
       <c r="D728" s="24" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -33349,13 +33347,13 @@
         <v>728</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
       <c r="C729" s="17" t="s">
-        <v>3957</v>
+        <v>3955</v>
       </c>
       <c r="D729" s="24" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -33366,10 +33364,10 @@
         <v>3838</v>
       </c>
       <c r="C730" s="17" t="s">
-        <v>3982</v>
+        <v>3980</v>
       </c>
       <c r="D730" s="24" t="s">
-        <v>3983</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -33377,13 +33375,13 @@
         <v>730</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>3984</v>
+        <v>3982</v>
       </c>
       <c r="C731" s="17" t="s">
-        <v>3985</v>
+        <v>3983</v>
       </c>
       <c r="D731" s="24" t="s">
-        <v>3988</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -33391,13 +33389,13 @@
         <v>731</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>3986</v>
+        <v>3984</v>
       </c>
       <c r="C732" s="17" t="s">
+        <v>3985</v>
+      </c>
+      <c r="D732" s="24" t="s">
         <v>3987</v>
-      </c>
-      <c r="D732" s="24" t="s">
-        <v>3989</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -33405,7 +33403,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>3990</v>
+        <v>3988</v>
       </c>
       <c r="C733" s="17" t="s">
         <v>1116</v>
@@ -33419,13 +33417,13 @@
         <v>733</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>3991</v>
+        <v>3989</v>
       </c>
       <c r="C734" s="17" t="s">
-        <v>3992</v>
+        <v>3990</v>
       </c>
       <c r="D734" s="24" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -33433,13 +33431,13 @@
         <v>734</v>
       </c>
       <c r="B735" s="4" t="s">
-        <v>3993</v>
+        <v>3991</v>
       </c>
       <c r="C735" s="17" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="D735" s="24" t="s">
-        <v>4006</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -33447,13 +33445,13 @@
         <v>735</v>
       </c>
       <c r="B736" s="4" t="s">
-        <v>3995</v>
+        <v>3993</v>
       </c>
       <c r="C736" s="17" t="s">
-        <v>3996</v>
+        <v>3994</v>
       </c>
       <c r="D736" s="24" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -33461,13 +33459,13 @@
         <v>736</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>3997</v>
+        <v>3995</v>
       </c>
       <c r="C737" s="17" t="s">
-        <v>3998</v>
+        <v>3996</v>
       </c>
       <c r="D737" s="24" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -33475,13 +33473,13 @@
         <v>737</v>
       </c>
       <c r="B738" s="4" t="s">
-        <v>3999</v>
+        <v>3997</v>
       </c>
       <c r="C738" s="17" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="D738" s="24" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -33489,13 +33487,13 @@
         <v>738</v>
       </c>
       <c r="B739" s="4" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
       <c r="C739" s="17" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="D739" s="24" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -33503,13 +33501,13 @@
         <v>739</v>
       </c>
       <c r="B740" s="4" t="s">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="C740" s="17" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="D740" s="24" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -33517,13 +33515,13 @@
         <v>740</v>
       </c>
       <c r="B741" s="4" t="s">
-        <v>4015</v>
+        <v>4013</v>
       </c>
       <c r="C741" s="17" t="s">
         <v>2029</v>
       </c>
       <c r="D741" s="17" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -33531,13 +33529,13 @@
         <v>741</v>
       </c>
       <c r="B742" s="4" t="s">
-        <v>4016</v>
+        <v>4014</v>
       </c>
       <c r="C742" s="17" t="s">
+        <v>4010</v>
+      </c>
+      <c r="D742" s="17" t="s">
         <v>4012</v>
-      </c>
-      <c r="D742" s="17" t="s">
-        <v>4014</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -33545,13 +33543,13 @@
         <v>742</v>
       </c>
       <c r="B743" s="4" t="s">
+        <v>4018</v>
+      </c>
+      <c r="C743" s="17" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D743" s="24" t="s">
         <v>4020</v>
-      </c>
-      <c r="C743" s="17" t="s">
-        <v>4021</v>
-      </c>
-      <c r="D743" s="24" t="s">
-        <v>4022</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -33559,13 +33557,13 @@
         <v>743</v>
       </c>
       <c r="B744" s="4" t="s">
+        <v>4026</v>
+      </c>
+      <c r="C744" s="17" t="s">
+        <v>4027</v>
+      </c>
+      <c r="D744" s="24" t="s">
         <v>4028</v>
-      </c>
-      <c r="C744" s="17" t="s">
-        <v>4029</v>
-      </c>
-      <c r="D744" s="24" t="s">
-        <v>4030</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -33573,13 +33571,13 @@
         <v>744</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="C745" s="17" t="s">
-        <v>4031</v>
+        <v>4029</v>
       </c>
       <c r="D745" s="24" t="s">
-        <v>4032</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -33587,13 +33585,13 @@
         <v>745</v>
       </c>
       <c r="B746" s="4" t="s">
-        <v>4042</v>
+        <v>4040</v>
       </c>
       <c r="C746" s="17" t="s">
-        <v>4034</v>
+        <v>4032</v>
       </c>
       <c r="D746" s="24" t="s">
-        <v>4035</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -33601,13 +33599,13 @@
         <v>746</v>
       </c>
       <c r="B747" s="4" t="s">
-        <v>4038</v>
+        <v>4036</v>
       </c>
       <c r="C747" s="17" t="s">
-        <v>4036</v>
+        <v>4034</v>
       </c>
       <c r="D747" s="24" t="s">
-        <v>4037</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -33615,13 +33613,13 @@
         <v>747</v>
       </c>
       <c r="B748" s="4" t="s">
+        <v>4037</v>
+      </c>
+      <c r="C748" s="17" t="s">
+        <v>4038</v>
+      </c>
+      <c r="D748" s="24" t="s">
         <v>4039</v>
-      </c>
-      <c r="C748" s="17" t="s">
-        <v>4040</v>
-      </c>
-      <c r="D748" s="24" t="s">
-        <v>4041</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -33629,13 +33627,13 @@
         <v>748</v>
       </c>
       <c r="B749" s="4" t="s">
-        <v>4047</v>
+        <v>4045</v>
       </c>
       <c r="C749" s="17" t="s">
-        <v>4045</v>
+        <v>4043</v>
       </c>
       <c r="D749" s="24" t="s">
-        <v>4046</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -33643,13 +33641,13 @@
         <v>749</v>
       </c>
       <c r="B750" s="4" t="s">
+        <v>4050</v>
+      </c>
+      <c r="C750" s="17" t="s">
+        <v>4051</v>
+      </c>
+      <c r="D750" s="24" t="s">
         <v>4052</v>
-      </c>
-      <c r="C750" s="17" t="s">
-        <v>4053</v>
-      </c>
-      <c r="D750" s="24" t="s">
-        <v>4054</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -33657,13 +33655,13 @@
         <v>750</v>
       </c>
       <c r="B751" s="4" t="s">
+        <v>4053</v>
+      </c>
+      <c r="C751" s="17" t="s">
+        <v>4054</v>
+      </c>
+      <c r="D751" s="24" t="s">
         <v>4055</v>
-      </c>
-      <c r="C751" s="17" t="s">
-        <v>4056</v>
-      </c>
-      <c r="D751" s="24" t="s">
-        <v>4057</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -33671,13 +33669,13 @@
         <v>751</v>
       </c>
       <c r="B752" s="4" t="s">
+        <v>4056</v>
+      </c>
+      <c r="C752" s="17" t="s">
+        <v>4057</v>
+      </c>
+      <c r="D752" s="24" t="s">
         <v>4058</v>
-      </c>
-      <c r="C752" s="17" t="s">
-        <v>4059</v>
-      </c>
-      <c r="D752" s="24" t="s">
-        <v>4060</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -33685,13 +33683,13 @@
         <v>752</v>
       </c>
       <c r="B753" s="4" t="s">
+        <v>4059</v>
+      </c>
+      <c r="C753" s="17" t="s">
+        <v>4060</v>
+      </c>
+      <c r="D753" s="24" t="s">
         <v>4061</v>
-      </c>
-      <c r="C753" s="17" t="s">
-        <v>4062</v>
-      </c>
-      <c r="D753" s="24" t="s">
-        <v>4063</v>
       </c>
     </row>
     <row r="754" spans="1:4">

--- a/WebRoot/oem/heichao/locale/locale-en.xlsx
+++ b/WebRoot/oem/heichao/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFE74A7-5B1A-4EE8-BA02-6BDA7F2890A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96BA8FD-6793-48BE-B6A5-02A3CFE6BF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4305" uniqueCount="4076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4335" uniqueCount="4106">
   <si>
     <t>myself</t>
   </si>
@@ -15430,6 +15430,120 @@
   </si>
   <si>
     <t>Print the exception log</t>
+  </si>
+  <si>
+    <t>projectTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayContentConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示内容配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realtimeMonitoringModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时监控模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FESResultStatisticsPieChart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工况诊断统计饼图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commStatusStatisticsPieChart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信状态统计饼图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runStatusStatisticsPieChart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行状态统计饼图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyQueryModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史查询模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmQueryModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display content configuration</t>
+  </si>
+  <si>
+    <t>Real-time monitoring module</t>
+  </si>
+  <si>
+    <t>Condition Diagnosis Statistics Pie Chart</t>
+  </si>
+  <si>
+    <t>Communication status statistics pie chart</t>
+  </si>
+  <si>
+    <t>Run state statistics pie chart</t>
+  </si>
+  <si>
+    <t>History query module</t>
+  </si>
+  <si>
+    <t>报警查询模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm query module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primaryDeviceModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主设备模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary device module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>智能监控系统 V9.7</t>
@@ -17744,10 +17858,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>4070</v>
+        <v>4100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4071</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17758,10 +17872,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>4072</v>
+        <v>4102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4073</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -17772,10 +17886,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>4074</v>
+        <v>4104</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>4075</v>
+        <v>4105</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -23137,10 +23251,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D763"/>
+  <dimension ref="A1:D783"/>
   <sheetViews>
-    <sheetView topLeftCell="A672" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D688" sqref="D688:D690"/>
+    <sheetView topLeftCell="A744" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D768" sqref="D768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33693,64 +33807,264 @@
       </c>
     </row>
     <row r="754" spans="1:4">
-      <c r="A754" s="14"/>
-      <c r="B754" s="4"/>
-      <c r="C754" s="17"/>
-      <c r="D754" s="24"/>
+      <c r="A754" s="14">
+        <v>753</v>
+      </c>
+      <c r="B754" s="4" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C754" s="17" t="s">
+        <v>4071</v>
+      </c>
+      <c r="D754" s="24" t="s">
+        <v>4098</v>
+      </c>
     </row>
     <row r="755" spans="1:4">
-      <c r="A755" s="14"/>
-      <c r="B755" s="4"/>
-      <c r="C755" s="17"/>
-      <c r="D755" s="24"/>
+      <c r="A755" s="14">
+        <v>754</v>
+      </c>
+      <c r="B755" s="4" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C755" s="17" t="s">
+        <v>4073</v>
+      </c>
+      <c r="D755" s="24" t="s">
+        <v>4099</v>
+      </c>
     </row>
     <row r="756" spans="1:4">
-      <c r="A756" s="14"/>
-      <c r="B756" s="4"/>
-      <c r="C756" s="17"/>
-      <c r="D756" s="24"/>
+      <c r="A756" s="14">
+        <v>755</v>
+      </c>
+      <c r="B756" s="4" t="s">
+        <v>4074</v>
+      </c>
+      <c r="C756" s="17" t="s">
+        <v>4075</v>
+      </c>
+      <c r="D756" s="24" t="s">
+        <v>4087</v>
+      </c>
     </row>
     <row r="757" spans="1:4">
-      <c r="A757" s="14"/>
-      <c r="B757" s="4"/>
-      <c r="C757" s="17"/>
-      <c r="D757" s="24"/>
+      <c r="A757" s="14">
+        <v>756</v>
+      </c>
+      <c r="B757" s="4" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C757" s="17" t="s">
+        <v>4077</v>
+      </c>
+      <c r="D757" s="24" t="s">
+        <v>4088</v>
+      </c>
     </row>
     <row r="758" spans="1:4">
-      <c r="A758" s="14"/>
-      <c r="B758" s="4"/>
-      <c r="C758" s="17"/>
-      <c r="D758" s="24"/>
+      <c r="A758" s="14">
+        <v>757</v>
+      </c>
+      <c r="B758" s="4" t="s">
+        <v>4078</v>
+      </c>
+      <c r="C758" s="17" t="s">
+        <v>4079</v>
+      </c>
+      <c r="D758" s="24" t="s">
+        <v>4089</v>
+      </c>
     </row>
     <row r="759" spans="1:4">
-      <c r="A759" s="14"/>
-      <c r="B759" s="4"/>
-      <c r="C759" s="17"/>
-      <c r="D759" s="24"/>
+      <c r="A759" s="14">
+        <v>758</v>
+      </c>
+      <c r="B759" s="4" t="s">
+        <v>4080</v>
+      </c>
+      <c r="C759" s="17" t="s">
+        <v>4081</v>
+      </c>
+      <c r="D759" s="24" t="s">
+        <v>4090</v>
+      </c>
     </row>
     <row r="760" spans="1:4">
-      <c r="A760" s="14"/>
-      <c r="B760" s="4"/>
-      <c r="C760" s="17"/>
-      <c r="D760" s="24"/>
+      <c r="A760" s="14">
+        <v>759</v>
+      </c>
+      <c r="B760" s="4" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C760" s="17" t="s">
+        <v>4083</v>
+      </c>
+      <c r="D760" s="24" t="s">
+        <v>4091</v>
+      </c>
     </row>
     <row r="761" spans="1:4">
-      <c r="A761" s="14"/>
-      <c r="B761" s="4"/>
-      <c r="C761" s="17"/>
-      <c r="D761" s="24"/>
+      <c r="A761" s="14">
+        <v>760</v>
+      </c>
+      <c r="B761" s="4" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C761" s="17" t="s">
+        <v>4085</v>
+      </c>
+      <c r="D761" s="24" t="s">
+        <v>4092</v>
+      </c>
     </row>
     <row r="762" spans="1:4">
-      <c r="A762" s="14"/>
-      <c r="B762" s="4"/>
-      <c r="C762" s="17"/>
-      <c r="D762" s="24"/>
+      <c r="A762" s="14">
+        <v>761</v>
+      </c>
+      <c r="B762" s="4" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C762" s="17" t="s">
+        <v>4093</v>
+      </c>
+      <c r="D762" s="24" t="s">
+        <v>4094</v>
+      </c>
     </row>
     <row r="763" spans="1:4">
-      <c r="A763" s="14"/>
-      <c r="B763" s="4"/>
-      <c r="C763" s="17"/>
-      <c r="D763" s="24"/>
+      <c r="A763" s="14">
+        <v>762</v>
+      </c>
+      <c r="B763" s="4" t="s">
+        <v>4095</v>
+      </c>
+      <c r="C763" s="17" t="s">
+        <v>4096</v>
+      </c>
+      <c r="D763" s="24" t="s">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4">
+      <c r="A764" s="14"/>
+      <c r="B764" s="4"/>
+      <c r="C764" s="17"/>
+      <c r="D764" s="24"/>
+    </row>
+    <row r="765" spans="1:4">
+      <c r="A765" s="14"/>
+      <c r="B765" s="4"/>
+      <c r="C765" s="17"/>
+      <c r="D765" s="24"/>
+    </row>
+    <row r="766" spans="1:4">
+      <c r="A766" s="14"/>
+      <c r="B766" s="4"/>
+      <c r="C766" s="17"/>
+      <c r="D766" s="24"/>
+    </row>
+    <row r="767" spans="1:4">
+      <c r="A767" s="14"/>
+      <c r="B767" s="4"/>
+      <c r="C767" s="17"/>
+      <c r="D767" s="24"/>
+    </row>
+    <row r="768" spans="1:4">
+      <c r="A768" s="14"/>
+      <c r="B768" s="4"/>
+      <c r="C768" s="17"/>
+      <c r="D768" s="24"/>
+    </row>
+    <row r="769" spans="1:4">
+      <c r="A769" s="14"/>
+      <c r="B769" s="4"/>
+      <c r="C769" s="17"/>
+      <c r="D769" s="24"/>
+    </row>
+    <row r="770" spans="1:4">
+      <c r="A770" s="14"/>
+      <c r="B770" s="4"/>
+      <c r="C770" s="17"/>
+      <c r="D770" s="24"/>
+    </row>
+    <row r="771" spans="1:4">
+      <c r="A771" s="14"/>
+      <c r="B771" s="4"/>
+      <c r="C771" s="17"/>
+      <c r="D771" s="24"/>
+    </row>
+    <row r="772" spans="1:4">
+      <c r="A772" s="14"/>
+      <c r="B772" s="4"/>
+      <c r="C772" s="17"/>
+      <c r="D772" s="24"/>
+    </row>
+    <row r="773" spans="1:4">
+      <c r="A773" s="14"/>
+      <c r="B773" s="4"/>
+      <c r="C773" s="17"/>
+      <c r="D773" s="24"/>
+    </row>
+    <row r="774" spans="1:4">
+      <c r="A774" s="14"/>
+      <c r="B774" s="4"/>
+      <c r="C774" s="17"/>
+      <c r="D774" s="24"/>
+    </row>
+    <row r="775" spans="1:4">
+      <c r="A775" s="14"/>
+      <c r="B775" s="4"/>
+      <c r="C775" s="17"/>
+      <c r="D775" s="24"/>
+    </row>
+    <row r="776" spans="1:4">
+      <c r="A776" s="14"/>
+      <c r="B776" s="4"/>
+      <c r="C776" s="17"/>
+      <c r="D776" s="24"/>
+    </row>
+    <row r="777" spans="1:4">
+      <c r="A777" s="14"/>
+      <c r="B777" s="4"/>
+      <c r="C777" s="17"/>
+      <c r="D777" s="24"/>
+    </row>
+    <row r="778" spans="1:4">
+      <c r="A778" s="14"/>
+      <c r="B778" s="4"/>
+      <c r="C778" s="17"/>
+      <c r="D778" s="24"/>
+    </row>
+    <row r="779" spans="1:4">
+      <c r="A779" s="14"/>
+      <c r="B779" s="4"/>
+      <c r="C779" s="17"/>
+      <c r="D779" s="24"/>
+    </row>
+    <row r="780" spans="1:4">
+      <c r="A780" s="14"/>
+      <c r="B780" s="4"/>
+      <c r="C780" s="17"/>
+      <c r="D780" s="24"/>
+    </row>
+    <row r="781" spans="1:4">
+      <c r="A781" s="14"/>
+      <c r="B781" s="4"/>
+      <c r="C781" s="17"/>
+      <c r="D781" s="24"/>
+    </row>
+    <row r="782" spans="1:4">
+      <c r="A782" s="14"/>
+      <c r="B782" s="4"/>
+      <c r="C782" s="17"/>
+      <c r="D782" s="24"/>
+    </row>
+    <row r="783" spans="1:4">
+      <c r="A783" s="14"/>
+      <c r="B783" s="4"/>
+      <c r="C783" s="17"/>
+      <c r="D783" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/heichao/locale/locale-en.xlsx
+++ b/WebRoot/oem/heichao/locale/locale-en.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA71FB92-68A0-40D1-8C91-2EFCDB648705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AA28BB-549D-479A-8009-1E20120E32CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15625,19 +15625,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《智能监控系统 V9.7》主要在采集、控制的基础上，侧重油井智能分析。模块主要包括实时监控、历史查询、生产报表、故障查询、日志查询、计算维护、驱动配置、权限管理、设备管理、系统配置等。系统应用大数据分析方法，对生产关键指标进行统计分析，及时发现生产不正常井，挖掘生产潜力井，提升对目标区块和单井的管控能力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intelligent Monitoring System V9.7 mainly focuses on the intelligent analysis of oil wells on the basis of collection and control. The module mainly includes real-time monitoring, historical query, production report, fault query, log query, calculation and maintenance, driver configuration, permission management, device management, system configuration, etc. The system applies big data analysis methods to statistically analyze key production indicators, find abnormal production wells in time, tap production potential wells, and improve the management and control capabilities of target blocks and single wells.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技术支持：天津黑潮科技有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Technical support: Tianjin Black Tide Technology Co., Ltd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《智能监控系统 V9.7》主要包括实时监控、历史查询、生产报表、报警查询、设备日志、系统日志、数据维护、驱动配置、权限管理、设备管理、系统配置等模块，实现对煤层气井数据的采集与控制。为煤层气生产的稳产、增效与安全运营提供数据决策支持。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intelligent Monitoring System V9.7 mainly includes real-time monitoring, historical query, production report, alarm query, equipment log, system log, data maintenance, drive configuration, permission management, equipment management, system configuration and other modules to realize the collection and control of coalbed methane well data. Provide data decision-making support for stable production, efficiency enhancement and safe operation of coalbed methane production.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -17943,10 +17943,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>4120</v>
+        <v>4122</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4121</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -17957,10 +17957,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>4122</v>
+        <v>4120</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>4123</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="5" spans="1:4">
